--- a/attack/Experiment Results.xlsx
+++ b/attack/Experiment Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20645579-BB5E-4DCB-8D33-5CB55C0F4982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0750B4DD-CD47-49A2-8A64-A935CBE54697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22268" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,6 +401,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,18 +426,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,22 +437,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -456,9 +459,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,53 +754,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -848,7 +848,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="27"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -944,7 +944,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="27"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -992,7 +992,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1040,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1088,7 +1088,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="28"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1136,33 +1136,33 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="19" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1210,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="20"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1258,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1354,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="20"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="20"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="20"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="20"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1594,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="20"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1642,53 +1642,53 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1736,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1784,7 +1784,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
@@ -1880,7 +1880,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="27"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +1976,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="27"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="27"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2072,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="27"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="27"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4" t="s">
         <v>18</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A33" s="27"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4" t="s">
         <v>19</v>
       </c>
@@ -2216,7 +2216,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A34" s="28"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
@@ -2264,33 +2264,33 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A36" s="27"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2338,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A37" s="27"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -2386,7 +2386,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" s="27"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
@@ -2434,7 +2434,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A39" s="27"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A40" s="27"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -2530,7 +2530,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="27"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="4" t="s">
         <v>3</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="27"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="4" t="s">
         <v>16</v>
       </c>
@@ -2626,7 +2626,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="27"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="4" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="27"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="4" t="s">
         <v>17</v>
       </c>
@@ -2722,7 +2722,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="27"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="4" t="s">
         <v>18</v>
       </c>
@@ -2770,7 +2770,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="27"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="4" t="s">
         <v>19</v>
       </c>
@@ -2818,7 +2818,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="28"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="4" t="s">
         <v>20</v>
       </c>
@@ -2866,53 +2866,53 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="31"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="18"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="23" t="s">
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="25"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A50" s="27"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="4" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +2960,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A51" s="27"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="11" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +3008,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A52" s="27"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="12" t="s">
         <v>8</v>
       </c>
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A53" s="27"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="12" t="s">
         <v>9</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A54" s="27"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="11" t="s">
         <v>4</v>
       </c>
@@ -3152,7 +3152,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A55" s="28"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="11" t="s">
         <v>3</v>
       </c>
@@ -3200,33 +3200,33 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="23" t="s">
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="25"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="27"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A57" s="27"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="4" t="s">
         <v>0</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A58" s="27"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="4" t="s">
         <v>2</v>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A59" s="27"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="5" t="s">
         <v>8</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A60" s="27"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="5" t="s">
         <v>9</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A61" s="27"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="4" t="s">
         <v>4</v>
       </c>
@@ -3466,7 +3466,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A62" s="27"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="4" t="s">
         <v>3</v>
       </c>
@@ -3514,7 +3514,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A63" s="27"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="4" t="s">
         <v>16</v>
       </c>
@@ -3562,7 +3562,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A64" s="27"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="4" t="s">
         <v>14</v>
       </c>
@@ -3610,7 +3610,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A65" s="27"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="4" t="s">
         <v>17</v>
       </c>
@@ -3658,7 +3658,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A66" s="27"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="4" t="s">
         <v>18</v>
       </c>
@@ -3706,7 +3706,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A67" s="27"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="4" t="s">
         <v>19</v>
       </c>
@@ -3754,7 +3754,7 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="28"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="4" t="s">
         <v>20</v>
       </c>
@@ -3803,6 +3803,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A22:A34"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="J35:P35"/>
     <mergeCell ref="A48:P48"/>
     <mergeCell ref="A49:A55"/>
     <mergeCell ref="C49:I49"/>
@@ -3810,20 +3824,6 @@
     <mergeCell ref="A56:A68"/>
     <mergeCell ref="C56:I56"/>
     <mergeCell ref="J56:P56"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:A34"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="J35:P35"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3848,53 +3848,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3990,7 +3990,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="27"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -4038,7 +4038,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -4146,7 +4146,7 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -4200,7 +4200,7 @@
       <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="28"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -4254,30 +4254,30 @@
       <c r="W9" s="15"/>
     </row>
     <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="19" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -4286,7 +4286,7 @@
       <c r="W10" s="15"/>
     </row>
     <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -4340,7 +4340,7 @@
       <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="20"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4394,7 +4394,7 @@
       <c r="W12" s="15"/>
     </row>
     <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -4442,7 +4442,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -4490,7 +4490,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -4538,7 +4538,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="20"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -4586,7 +4586,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="20"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
@@ -4634,7 +4634,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="20"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -4682,7 +4682,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="20"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
@@ -4730,7 +4730,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -4778,53 +4778,53 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
     </row>
     <row r="22" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
@@ -4920,7 +4920,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
@@ -5016,7 +5016,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
@@ -5064,7 +5064,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="28"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
@@ -5112,33 +5112,33 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
     </row>
     <row r="30" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="27"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
@@ -5186,7 +5186,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="27"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
@@ -5234,7 +5234,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="27"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
@@ -5282,7 +5282,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="27"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
@@ -5330,7 +5330,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="27"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
@@ -5378,7 +5378,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
@@ -5426,53 +5426,53 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
     </row>
     <row r="37" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
     </row>
     <row r="38" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="20"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="4" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +5520,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="20"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
@@ -5568,7 +5568,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="20"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="12" t="s">
         <v>8</v>
       </c>
@@ -5616,7 +5616,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="20"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="12" t="s">
         <v>9</v>
       </c>
@@ -5664,7 +5664,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="20"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="11" t="s">
         <v>4</v>
       </c>
@@ -5712,7 +5712,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="20"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="11" t="s">
         <v>3</v>
       </c>
@@ -5760,33 +5760,33 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="19" t="s">
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
     </row>
     <row r="45" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="20"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
@@ -5834,7 +5834,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="20"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
@@ -5882,7 +5882,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="20"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="5" t="s">
         <v>8</v>
       </c>
@@ -5930,7 +5930,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="20"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="5" t="s">
         <v>9</v>
       </c>
@@ -5978,7 +5978,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="20"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="4" t="s">
         <v>4</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="20"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="4" t="s">
         <v>3</v>
       </c>
@@ -6081,11 +6081,6 @@
     <row r="72" ht="33.4" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="J37:P37"/>
     <mergeCell ref="C44:I44"/>
     <mergeCell ref="J44:P44"/>
     <mergeCell ref="A44:A50"/>
@@ -6102,6 +6097,11 @@
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="J29:P29"/>
     <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J37:P37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6114,7 +6114,7 @@
   <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P84" sqref="P84"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6125,56 +6125,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="26">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="32" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="33" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="H3" s="3">
         <v>1000</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="4" t="s">
         <v>0</v>
       </c>
@@ -6220,7 +6220,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="H4" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
@@ -6266,7 +6266,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
@@ -6288,7 +6288,7 @@
       <c r="H5" s="3">
         <v>18.8</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="11" t="s">
         <v>25</v>
       </c>
@@ -6312,7 +6312,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="H6" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>26</v>
       </c>
@@ -6358,7 +6358,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="11" t="s">
         <v>27</v>
       </c>
@@ -6404,7 +6404,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
@@ -6426,7 +6426,7 @@
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="11" t="s">
         <v>28</v>
       </c>
@@ -6450,7 +6450,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="11" t="s">
         <v>29</v>
       </c>
@@ -6496,7 +6496,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
@@ -6518,7 +6518,7 @@
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="11" t="s">
         <v>30</v>
       </c>
@@ -6542,33 +6542,33 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="20"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
@@ -6590,7 +6590,7 @@
       <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="4" t="s">
         <v>0</v>
       </c>
@@ -6614,7 +6614,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
@@ -6636,7 +6636,7 @@
       <c r="H13" s="3">
         <v>21.1</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="11" t="s">
         <v>24</v>
       </c>
@@ -6660,7 +6660,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="H14" s="3">
         <v>42.2</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="11" t="s">
         <v>25</v>
       </c>
@@ -6706,7 +6706,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="H15" s="3">
         <v>54.6</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="11" t="s">
         <v>26</v>
       </c>
@@ -6752,7 +6752,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="20"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
@@ -6774,7 +6774,7 @@
       <c r="H16" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="11" t="s">
         <v>27</v>
       </c>
@@ -6798,7 +6798,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A17" s="20"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="H17" s="3">
         <v>70.3</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="11" t="s">
         <v>28</v>
       </c>
@@ -6844,7 +6844,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A18" s="20"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
@@ -6866,7 +6866,7 @@
       <c r="H18" s="3">
         <v>75</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="11" t="s">
         <v>29</v>
       </c>
@@ -6890,7 +6890,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A19" s="20"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="H19" s="3">
         <v>80.5</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="11" t="s">
         <v>30</v>
       </c>
@@ -6936,57 +6936,57 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="26">
         <v>0</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="32" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="33" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="33"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="4" t="s">
         <v>0</v>
       </c>
@@ -7032,17 +7032,29 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="33"/>
+      <c r="C23" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="G23" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>46.9</v>
+      </c>
+      <c r="I23" s="34"/>
       <c r="J23" s="11" t="s">
         <v>24</v>
       </c>
@@ -7066,17 +7078,29 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="33"/>
+      <c r="C24" s="3">
+        <v>29.7</v>
+      </c>
+      <c r="D24" s="3">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3">
+        <v>57.8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H24" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="I24" s="34"/>
       <c r="J24" s="11" t="s">
         <v>25</v>
       </c>
@@ -7100,17 +7124,29 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="33"/>
+      <c r="C25" s="3">
+        <v>58.6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E25" s="3">
+        <v>84.4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>100</v>
+      </c>
+      <c r="I25" s="34"/>
       <c r="J25" s="11" t="s">
         <v>26</v>
       </c>
@@ -7134,17 +7170,29 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="33"/>
+      <c r="C26" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="34"/>
       <c r="J26" s="11" t="s">
         <v>27</v>
       </c>
@@ -7168,17 +7216,29 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="33"/>
+      <c r="C27" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="D27" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="34"/>
       <c r="J27" s="11" t="s">
         <v>28</v>
       </c>
@@ -7202,17 +7262,29 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A28" s="33"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="33"/>
+      <c r="C28" s="3">
+        <v>91.4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>100</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3">
+        <v>100</v>
+      </c>
+      <c r="G28" s="3">
+        <v>100</v>
+      </c>
+      <c r="H28" s="3">
+        <v>100</v>
+      </c>
+      <c r="I28" s="34"/>
       <c r="J28" s="11" t="s">
         <v>29</v>
       </c>
@@ -7236,17 +7308,29 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A29" s="34"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="34"/>
+      <c r="C29" s="3">
+        <v>100</v>
+      </c>
+      <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>100</v>
+      </c>
+      <c r="H29" s="3">
+        <v>100</v>
+      </c>
+      <c r="I29" s="35"/>
       <c r="J29" s="11" t="s">
         <v>30</v>
       </c>
@@ -7276,30 +7360,30 @@
       <c r="Y29" s="15"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
@@ -7309,7 +7393,7 @@
       <c r="Y30" s="15"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A31" s="20"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
@@ -7331,7 +7415,7 @@
       <c r="H31" s="3">
         <v>1000</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="4" t="s">
         <v>0</v>
       </c>
@@ -7362,17 +7446,29 @@
       <c r="Y31" s="15"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A32" s="20"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="20"/>
+      <c r="C32" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="D32" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>68</v>
+      </c>
+      <c r="G32" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>85.2</v>
+      </c>
+      <c r="I32" s="31"/>
       <c r="J32" s="11" t="s">
         <v>24</v>
       </c>
@@ -7403,17 +7499,29 @@
       <c r="Y32" s="15"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A33" s="20"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="20"/>
+      <c r="C33" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="D33" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="31"/>
       <c r="J33" s="11" t="s">
         <v>25</v>
       </c>
@@ -7444,17 +7552,29 @@
       <c r="Y33" s="15"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A34" s="20"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="20"/>
+      <c r="C34" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="D34" s="3">
+        <v>100</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3">
+        <v>100</v>
+      </c>
+      <c r="G34" s="3">
+        <v>100</v>
+      </c>
+      <c r="H34" s="3">
+        <v>100</v>
+      </c>
+      <c r="I34" s="31"/>
       <c r="J34" s="11" t="s">
         <v>26</v>
       </c>
@@ -7485,17 +7605,29 @@
       <c r="Y34" s="15"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A35" s="20"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="20"/>
+      <c r="C35" s="3">
+        <v>100</v>
+      </c>
+      <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="31"/>
       <c r="J35" s="11" t="s">
         <v>27</v>
       </c>
@@ -7526,17 +7658,29 @@
       <c r="Y35" s="15"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A36" s="20"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="20"/>
+      <c r="C36" s="3">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3">
+        <v>100</v>
+      </c>
+      <c r="E36" s="3">
+        <v>100</v>
+      </c>
+      <c r="F36" s="3">
+        <v>100</v>
+      </c>
+      <c r="G36" s="3">
+        <v>100</v>
+      </c>
+      <c r="H36" s="3">
+        <v>100</v>
+      </c>
+      <c r="I36" s="31"/>
       <c r="J36" s="11" t="s">
         <v>28</v>
       </c>
@@ -7566,17 +7710,29 @@
       <c r="X36" s="15"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A37" s="20"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="20"/>
+      <c r="C37" s="3">
+        <v>100</v>
+      </c>
+      <c r="D37" s="3">
+        <v>100</v>
+      </c>
+      <c r="E37" s="3">
+        <v>100</v>
+      </c>
+      <c r="F37" s="3">
+        <v>100</v>
+      </c>
+      <c r="G37" s="3">
+        <v>100</v>
+      </c>
+      <c r="H37" s="3">
+        <v>100</v>
+      </c>
+      <c r="I37" s="31"/>
       <c r="J37" s="11" t="s">
         <v>29</v>
       </c>
@@ -7600,17 +7756,29 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A38" s="20"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="20"/>
+      <c r="C38" s="3">
+        <v>100</v>
+      </c>
+      <c r="D38" s="3">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3">
+        <v>100</v>
+      </c>
+      <c r="F38" s="3">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3">
+        <v>100</v>
+      </c>
+      <c r="H38" s="3">
+        <v>100</v>
+      </c>
+      <c r="I38" s="31"/>
       <c r="J38" s="11" t="s">
         <v>30</v>
       </c>
@@ -7634,57 +7802,57 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="26">
         <v>0</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="32" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="33" t="s">
         <v>5</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="25"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="27"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A41" s="33"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="4" t="s">
         <v>0</v>
       </c>
@@ -7706,7 +7874,7 @@
       <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="33"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="4" t="s">
         <v>0</v>
       </c>
@@ -7730,17 +7898,29 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A42" s="33"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="33"/>
+      <c r="C42" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="F42" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="G42" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="H42" s="3">
+        <v>46.9</v>
+      </c>
+      <c r="I42" s="34"/>
       <c r="J42" s="11" t="s">
         <v>24</v>
       </c>
@@ -7764,17 +7944,29 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A43" s="33"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="33"/>
+      <c r="C43" s="3">
+        <v>29.7</v>
+      </c>
+      <c r="D43" s="3">
+        <v>50</v>
+      </c>
+      <c r="E43" s="3">
+        <v>57.8</v>
+      </c>
+      <c r="F43" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H43" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="I43" s="34"/>
       <c r="J43" s="11" t="s">
         <v>25</v>
       </c>
@@ -7798,17 +7990,29 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A44" s="33"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="33"/>
+      <c r="C44" s="3">
+        <v>58.6</v>
+      </c>
+      <c r="D44" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E44" s="3">
+        <v>84.4</v>
+      </c>
+      <c r="F44" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="G44" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="34"/>
       <c r="J44" s="11" t="s">
         <v>26</v>
       </c>
@@ -7832,17 +8036,29 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="33"/>
+      <c r="C45" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="D45" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="34"/>
       <c r="J45" s="11" t="s">
         <v>27</v>
       </c>
@@ -7866,17 +8082,29 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A46" s="33"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="33"/>
+      <c r="C46" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="D46" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="34"/>
       <c r="J46" s="11" t="s">
         <v>28</v>
       </c>
@@ -7900,17 +8128,29 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A47" s="33"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="33"/>
+      <c r="C47" s="3">
+        <v>91.4</v>
+      </c>
+      <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>100</v>
+      </c>
+      <c r="I47" s="34"/>
       <c r="J47" s="11" t="s">
         <v>29</v>
       </c>
@@ -7934,17 +8174,29 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A48" s="34"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="34"/>
+      <c r="C48" s="3">
+        <v>100</v>
+      </c>
+      <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="35"/>
       <c r="J48" s="11" t="s">
         <v>30</v>
       </c>
@@ -7968,33 +8220,33 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="20" t="s">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A50" s="20"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="4" t="s">
         <v>0</v>
       </c>
@@ -8016,7 +8268,7 @@
       <c r="H50" s="3">
         <v>1000</v>
       </c>
-      <c r="I50" s="20"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="4" t="s">
         <v>0</v>
       </c>
@@ -8046,17 +8298,29 @@
       <c r="AD50" s="15"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A51" s="20"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="20"/>
+      <c r="C51" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="D51" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="E51" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>68</v>
+      </c>
+      <c r="G51" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="H51" s="3">
+        <v>85.2</v>
+      </c>
+      <c r="I51" s="31"/>
       <c r="J51" s="11" t="s">
         <v>24</v>
       </c>
@@ -8086,17 +8350,29 @@
       <c r="AD51" s="15"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A52" s="20"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="20"/>
+      <c r="C52" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="D52" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="31"/>
       <c r="J52" s="11" t="s">
         <v>25</v>
       </c>
@@ -8126,17 +8402,29 @@
       <c r="AD52" s="15"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A53" s="20"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="20"/>
+      <c r="C53" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="D53" s="3">
+        <v>100</v>
+      </c>
+      <c r="E53" s="3">
+        <v>100</v>
+      </c>
+      <c r="F53" s="3">
+        <v>100</v>
+      </c>
+      <c r="G53" s="3">
+        <v>100</v>
+      </c>
+      <c r="H53" s="3">
+        <v>100</v>
+      </c>
+      <c r="I53" s="31"/>
       <c r="J53" s="11" t="s">
         <v>26</v>
       </c>
@@ -8166,17 +8454,29 @@
       <c r="AD53" s="15"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A54" s="20"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="20"/>
+      <c r="C54" s="3">
+        <v>100</v>
+      </c>
+      <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="31"/>
       <c r="J54" s="11" t="s">
         <v>27</v>
       </c>
@@ -8206,17 +8506,29 @@
       <c r="AD54" s="15"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A55" s="20"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="20"/>
+      <c r="C55" s="3">
+        <v>100</v>
+      </c>
+      <c r="D55" s="3">
+        <v>100</v>
+      </c>
+      <c r="E55" s="3">
+        <v>100</v>
+      </c>
+      <c r="F55" s="3">
+        <v>100</v>
+      </c>
+      <c r="G55" s="3">
+        <v>100</v>
+      </c>
+      <c r="H55" s="3">
+        <v>100</v>
+      </c>
+      <c r="I55" s="31"/>
       <c r="J55" s="11" t="s">
         <v>28</v>
       </c>
@@ -8246,17 +8558,29 @@
       <c r="AD55" s="15"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A56" s="20"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="20"/>
+      <c r="C56" s="3">
+        <v>100</v>
+      </c>
+      <c r="D56" s="3">
+        <v>100</v>
+      </c>
+      <c r="E56" s="3">
+        <v>100</v>
+      </c>
+      <c r="F56" s="3">
+        <v>100</v>
+      </c>
+      <c r="G56" s="3">
+        <v>100</v>
+      </c>
+      <c r="H56" s="3">
+        <v>100</v>
+      </c>
+      <c r="I56" s="31"/>
       <c r="J56" s="11" t="s">
         <v>29</v>
       </c>
@@ -8286,17 +8610,29 @@
       <c r="AD56" s="15"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A57" s="20"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="20"/>
+      <c r="C57" s="3">
+        <v>100</v>
+      </c>
+      <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="31"/>
       <c r="J57" s="11" t="s">
         <v>30</v>
       </c>
@@ -8320,57 +8656,57 @@
       </c>
     </row>
     <row r="58" spans="1:30" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="26">
         <v>0</v>
       </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="32" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="33" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K59" s="24">
+      <c r="K59" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="25"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A60" s="33"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="4" t="s">
         <v>0</v>
       </c>
@@ -8392,7 +8728,7 @@
       <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="33"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="4" t="s">
         <v>0</v>
       </c>
@@ -8416,7 +8752,7 @@
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A61" s="33"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="11" t="s">
         <v>24</v>
       </c>
@@ -8438,31 +8774,31 @@
       <c r="H61" s="3">
         <v>3.1</v>
       </c>
-      <c r="I61" s="33"/>
+      <c r="I61" s="34"/>
       <c r="J61" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K61" s="3">
         <v>1.6</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="3">
         <v>1.6</v>
       </c>
-      <c r="M61" s="15">
+      <c r="M61" s="3">
         <v>1.6</v>
       </c>
-      <c r="N61" s="15">
+      <c r="N61" s="3">
         <v>1.6</v>
       </c>
-      <c r="O61" s="15">
+      <c r="O61" s="3">
         <v>1.6</v>
       </c>
-      <c r="P61" s="15">
+      <c r="P61" s="3">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A62" s="33"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="11" t="s">
         <v>25</v>
       </c>
@@ -8484,31 +8820,31 @@
       <c r="H62" s="3">
         <v>6.2</v>
       </c>
-      <c r="I62" s="33"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K62" s="3">
         <v>1.6</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L62" s="3">
         <v>1.6</v>
       </c>
-      <c r="M62" s="15">
+      <c r="M62" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N62" s="15">
+      <c r="N62" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O62" s="15">
+      <c r="O62" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P62" s="15">
+      <c r="P62" s="3">
         <v>3.1</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A63" s="33"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="11" t="s">
         <v>26</v>
       </c>
@@ -8530,31 +8866,31 @@
       <c r="H63" s="3">
         <v>7</v>
       </c>
-      <c r="I63" s="33"/>
+      <c r="I63" s="34"/>
       <c r="J63" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K63" s="3">
         <v>3.1</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L63" s="3">
         <v>3.9</v>
       </c>
-      <c r="M63" s="15">
+      <c r="M63" s="3">
         <v>3.9</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N63" s="3">
         <v>3.9</v>
       </c>
-      <c r="O63" s="15">
+      <c r="O63" s="3">
         <v>3.9</v>
       </c>
-      <c r="P63" s="15">
+      <c r="P63" s="3">
         <v>4.7</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A64" s="33"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="11" t="s">
         <v>27</v>
       </c>
@@ -8576,31 +8912,31 @@
       <c r="H64" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="I64" s="33"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64" s="3">
         <v>3.9</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L64" s="3">
         <v>6.2</v>
       </c>
-      <c r="M64" s="15">
+      <c r="M64" s="3">
         <v>7.8</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N64" s="3">
         <v>7.8</v>
       </c>
-      <c r="O64" s="15">
+      <c r="O64" s="3">
         <v>8.6</v>
       </c>
-      <c r="P64" s="15">
+      <c r="P64" s="3">
         <v>8.6</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A65" s="33"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="11" t="s">
         <v>28</v>
       </c>
@@ -8622,31 +8958,31 @@
       <c r="H65" s="3">
         <v>11.7</v>
       </c>
-      <c r="I65" s="33"/>
+      <c r="I65" s="34"/>
       <c r="J65" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K65" s="3">
         <v>7</v>
       </c>
-      <c r="L65" s="15">
+      <c r="L65" s="3">
         <v>7.8</v>
       </c>
-      <c r="M65" s="15">
+      <c r="M65" s="3">
         <v>9.4</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N65" s="3">
         <v>9.4</v>
       </c>
-      <c r="O65" s="15">
+      <c r="O65" s="3">
         <v>9.4</v>
       </c>
-      <c r="P65" s="15">
+      <c r="P65" s="3">
         <v>9.4</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A66" s="33"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="11" t="s">
         <v>29</v>
       </c>
@@ -8668,31 +9004,31 @@
       <c r="H66" s="3">
         <v>14.1</v>
       </c>
-      <c r="I66" s="33"/>
+      <c r="I66" s="34"/>
       <c r="J66" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="3">
         <v>8.6</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L66" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M66" s="3">
         <v>10.9</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N66" s="3">
         <v>11.7</v>
       </c>
-      <c r="O66" s="15">
+      <c r="O66" s="3">
         <v>11.7</v>
       </c>
-      <c r="P66" s="15">
+      <c r="P66" s="3">
         <v>13.3</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A67" s="34"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="11" t="s">
         <v>30</v>
       </c>
@@ -8714,57 +9050,57 @@
       <c r="H67" s="3">
         <v>18.8</v>
       </c>
-      <c r="I67" s="34"/>
+      <c r="I67" s="35"/>
       <c r="J67" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K67" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="L67" s="15">
+      <c r="L67" s="3">
         <v>12.5</v>
       </c>
-      <c r="M67" s="15">
+      <c r="M67" s="3">
         <v>15.6</v>
       </c>
-      <c r="N67" s="15">
+      <c r="N67" s="3">
         <v>15.6</v>
       </c>
-      <c r="O67" s="15">
+      <c r="O67" s="3">
         <v>15.6</v>
       </c>
-      <c r="P67" s="15">
+      <c r="P67" s="3">
         <v>17.2</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="20" t="s">
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A69" s="20"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="4" t="s">
         <v>0</v>
       </c>
@@ -8786,7 +9122,7 @@
       <c r="H69" s="3">
         <v>1000</v>
       </c>
-      <c r="I69" s="20"/>
+      <c r="I69" s="31"/>
       <c r="J69" s="4" t="s">
         <v>0</v>
       </c>
@@ -8810,7 +9146,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A70" s="20"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="11" t="s">
         <v>24</v>
       </c>
@@ -8832,7 +9168,7 @@
       <c r="H70" s="3">
         <v>21.1</v>
       </c>
-      <c r="I70" s="20"/>
+      <c r="I70" s="31"/>
       <c r="J70" s="11" t="s">
         <v>24</v>
       </c>
@@ -8856,7 +9192,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A71" s="20"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="11" t="s">
         <v>25</v>
       </c>
@@ -8878,7 +9214,7 @@
       <c r="H71" s="3">
         <v>28.9</v>
       </c>
-      <c r="I71" s="20"/>
+      <c r="I71" s="31"/>
       <c r="J71" s="11" t="s">
         <v>25</v>
       </c>
@@ -8902,7 +9238,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A72" s="20"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="11" t="s">
         <v>26</v>
       </c>
@@ -8924,7 +9260,7 @@
       <c r="H72" s="3">
         <v>34.4</v>
       </c>
-      <c r="I72" s="20"/>
+      <c r="I72" s="31"/>
       <c r="J72" s="11" t="s">
         <v>26</v>
       </c>
@@ -8948,7 +9284,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A73" s="20"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="11" t="s">
         <v>27</v>
       </c>
@@ -8970,7 +9306,7 @@
       <c r="H73" s="3">
         <v>39.1</v>
       </c>
-      <c r="I73" s="20"/>
+      <c r="I73" s="31"/>
       <c r="J73" s="11" t="s">
         <v>27</v>
       </c>
@@ -8994,7 +9330,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A74" s="20"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="11" t="s">
         <v>28</v>
       </c>
@@ -9016,7 +9352,7 @@
       <c r="H74" s="3">
         <v>44.5</v>
       </c>
-      <c r="I74" s="20"/>
+      <c r="I74" s="31"/>
       <c r="J74" s="11" t="s">
         <v>28</v>
       </c>
@@ -9040,7 +9376,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A75" s="20"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="11" t="s">
         <v>29</v>
       </c>
@@ -9062,7 +9398,7 @@
       <c r="H75" s="3">
         <v>50</v>
       </c>
-      <c r="I75" s="20"/>
+      <c r="I75" s="31"/>
       <c r="J75" s="11" t="s">
         <v>29</v>
       </c>
@@ -9086,7 +9422,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A76" s="20"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="11" t="s">
         <v>30</v>
       </c>
@@ -9108,7 +9444,7 @@
       <c r="H76" s="3">
         <v>58.6</v>
       </c>
-      <c r="I76" s="20"/>
+      <c r="I76" s="31"/>
       <c r="J76" s="11" t="s">
         <v>30</v>
       </c>
@@ -9133,6 +9469,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="I11:I19"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:I38"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I40:I48"/>
+    <mergeCell ref="K40:P40"/>
     <mergeCell ref="A68:A76"/>
     <mergeCell ref="C68:H68"/>
     <mergeCell ref="I68:I76"/>
@@ -9146,29 +9505,6 @@
     <mergeCell ref="C59:H59"/>
     <mergeCell ref="I59:I67"/>
     <mergeCell ref="K59:P59"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:I38"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A40:A48"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I40:I48"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="I2:I10"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="I11:I19"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attack/Experiment Results.xlsx
+++ b/attack/Experiment Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0750B4DD-CD47-49A2-8A64-A935CBE54697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D58249-B3BE-4DA4-A428-EC416E8B3283}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22268" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22268" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="37">
   <si>
     <t># of queries</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,22 @@
   </si>
   <si>
     <t>add gaussian noise at ouput layer &amp; input layer and use model trained with gaussian noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add gaussian noise at input layer and use model trained with gaussian noise (various sigma)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add gaussian noise at input layer and use model trained with gaussian noise (single sigma 0.19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add gaussian noise at input layer and use model trained with gaussian noise (various sigma random)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +416,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,9 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,6 +478,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,53 +776,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="25" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -848,7 +870,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -896,7 +918,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -944,7 +966,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -992,7 +1014,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1062,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1088,7 +1110,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1136,33 +1158,33 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1232,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1280,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1306,7 +1328,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1376,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="31"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1402,7 +1424,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1472,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1520,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1546,7 +1568,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1616,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1642,53 +1664,53 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="25" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="20"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1758,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="20"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1784,7 +1806,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="20"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
@@ -1832,7 +1854,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="20"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
@@ -1880,7 +1902,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="20"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1928,7 +1950,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="20"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +1998,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="20"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2046,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="20"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2094,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="20"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2142,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="20"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="4" t="s">
         <v>18</v>
       </c>
@@ -2168,7 +2190,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A33" s="20"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4" t="s">
         <v>19</v>
       </c>
@@ -2216,7 +2238,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A34" s="21"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
@@ -2264,33 +2286,33 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="30" t="s">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A36" s="20"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2360,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A37" s="20"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -2386,7 +2408,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" s="20"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
@@ -2434,7 +2456,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A39" s="20"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2482,7 +2504,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A40" s="20"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -2530,7 +2552,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="20"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>3</v>
       </c>
@@ -2578,7 +2600,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="20"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>16</v>
       </c>
@@ -2626,7 +2648,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="20"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="4" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2696,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="20"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="4" t="s">
         <v>17</v>
       </c>
@@ -2722,7 +2744,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="20"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="4" t="s">
         <v>18</v>
       </c>
@@ -2770,7 +2792,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="20"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="4" t="s">
         <v>19</v>
       </c>
@@ -2818,7 +2840,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="21"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="4" t="s">
         <v>20</v>
       </c>
@@ -2866,53 +2888,53 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="20"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="29"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A50" s="20"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="4" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +2982,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A51" s="20"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="11" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +3030,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A52" s="20"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="12" t="s">
         <v>8</v>
       </c>
@@ -3056,7 +3078,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A53" s="20"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="12" t="s">
         <v>9</v>
       </c>
@@ -3104,7 +3126,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A54" s="20"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="11" t="s">
         <v>4</v>
       </c>
@@ -3152,7 +3174,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A55" s="21"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="11" t="s">
         <v>3</v>
       </c>
@@ -3200,33 +3222,33 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="25" t="s">
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="27"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="29"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A57" s="20"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="4" t="s">
         <v>0</v>
       </c>
@@ -3274,7 +3296,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A58" s="20"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="4" t="s">
         <v>2</v>
       </c>
@@ -3322,7 +3344,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A59" s="20"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="5" t="s">
         <v>8</v>
       </c>
@@ -3370,7 +3392,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A60" s="20"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="5" t="s">
         <v>9</v>
       </c>
@@ -3418,7 +3440,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A61" s="20"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="4" t="s">
         <v>4</v>
       </c>
@@ -3466,7 +3488,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A62" s="20"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="4" t="s">
         <v>3</v>
       </c>
@@ -3514,7 +3536,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A63" s="20"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="4" t="s">
         <v>16</v>
       </c>
@@ -3562,7 +3584,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A64" s="20"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="4" t="s">
         <v>14</v>
       </c>
@@ -3610,7 +3632,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A65" s="20"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="4" t="s">
         <v>17</v>
       </c>
@@ -3658,7 +3680,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A66" s="20"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="4" t="s">
         <v>18</v>
       </c>
@@ -3706,7 +3728,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A67" s="20"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="4" t="s">
         <v>19</v>
       </c>
@@ -3754,7 +3776,7 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="21"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="4" t="s">
         <v>20</v>
       </c>
@@ -3833,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W72"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3848,53 +3870,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="25" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +3964,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3990,7 +4012,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -4038,7 +4060,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -4092,7 +4114,7 @@
       <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -4146,7 +4168,7 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -4200,7 +4222,7 @@
       <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -4254,30 +4276,30 @@
       <c r="W9" s="15"/>
     </row>
     <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -4286,7 +4308,7 @@
       <c r="W10" s="15"/>
     </row>
     <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -4340,7 +4362,7 @@
       <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4394,7 +4416,7 @@
       <c r="W12" s="15"/>
     </row>
     <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -4442,7 +4464,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -4490,7 +4512,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -4538,7 +4560,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -4586,7 +4608,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
@@ -4634,7 +4656,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -4682,7 +4704,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
@@ -4730,7 +4752,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -4778,53 +4800,53 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
     </row>
     <row r="22" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="25" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="20"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -4872,7 +4894,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="20"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
@@ -4920,7 +4942,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="20"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
@@ -4968,7 +4990,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="20"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
@@ -5016,7 +5038,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="20"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
@@ -5064,7 +5086,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="21"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
@@ -5112,33 +5134,33 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="30" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
     </row>
     <row r="30" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="20"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
@@ -5186,7 +5208,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="20"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
@@ -5234,7 +5256,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="20"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
@@ -5282,7 +5304,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="20"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
@@ -5330,7 +5352,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="20"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
@@ -5378,7 +5400,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="21"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
@@ -5426,53 +5448,53 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
+      <c r="A36" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
     </row>
     <row r="37" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="25" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="31"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="4" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +5542,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="31"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
@@ -5568,7 +5590,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="31"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="12" t="s">
         <v>8</v>
       </c>
@@ -5616,7 +5638,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="31"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="12" t="s">
         <v>9</v>
       </c>
@@ -5664,7 +5686,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="31"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="11" t="s">
         <v>4</v>
       </c>
@@ -5712,7 +5734,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="31"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="11" t="s">
         <v>3</v>
       </c>
@@ -5760,33 +5782,33 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="30" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
     </row>
     <row r="45" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="31"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
@@ -5834,7 +5856,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="31"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
@@ -5882,7 +5904,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="31"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="5" t="s">
         <v>8</v>
       </c>
@@ -5930,7 +5952,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="31"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="5" t="s">
         <v>9</v>
       </c>
@@ -5978,7 +6000,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="31"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="4" t="s">
         <v>4</v>
       </c>
@@ -6026,7 +6048,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="31"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="4" t="s">
         <v>3</v>
       </c>
@@ -6073,14 +6095,1554 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="33.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="29"/>
+    </row>
+    <row r="53" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="33"/>
+      <c r="B53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2">
+        <v>200</v>
+      </c>
+      <c r="F53" s="2">
+        <v>300</v>
+      </c>
+      <c r="G53" s="2">
+        <v>400</v>
+      </c>
+      <c r="H53" s="2">
+        <v>500</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="3">
+        <v>100</v>
+      </c>
+      <c r="L53" s="3">
+        <v>200</v>
+      </c>
+      <c r="M53" s="3">
+        <v>300</v>
+      </c>
+      <c r="N53" s="3">
+        <v>400</v>
+      </c>
+      <c r="O53" s="3">
+        <v>500</v>
+      </c>
+      <c r="P53" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="33"/>
+      <c r="B54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="3">
+        <v>74.45</v>
+      </c>
+      <c r="K54" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="L54" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="33"/>
+      <c r="B55" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="3">
+        <v>74.34</v>
+      </c>
+      <c r="K55" s="3">
+        <v>55.5</v>
+      </c>
+      <c r="L55" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="M55" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="N55" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="O55" s="3">
+        <v>100</v>
+      </c>
+      <c r="P55" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A56" s="33"/>
+      <c r="B56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="3">
+        <v>74.66</v>
+      </c>
+      <c r="K56" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="L56" s="3">
+        <v>89.8</v>
+      </c>
+      <c r="M56" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="N56" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="O56" s="3">
+        <v>100</v>
+      </c>
+      <c r="P56" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A57" s="33"/>
+      <c r="B57" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="K57" s="3">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="L57" s="3">
+        <v>55.5</v>
+      </c>
+      <c r="M57" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="N57" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="O57" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="P57" s="3">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A58" s="33"/>
+      <c r="B58" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="3">
+        <v>35.46</v>
+      </c>
+      <c r="K58" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="L58" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="M58" s="3">
+        <v>43</v>
+      </c>
+      <c r="N58" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="O58" s="3">
+        <v>53.1</v>
+      </c>
+      <c r="P58" s="3">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A59" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A60" s="33"/>
+      <c r="B60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="2">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2">
+        <v>200</v>
+      </c>
+      <c r="F60" s="2">
+        <v>300</v>
+      </c>
+      <c r="G60" s="2">
+        <v>400</v>
+      </c>
+      <c r="H60" s="2">
+        <v>500</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
+        <v>500</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A61" s="33"/>
+      <c r="B61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="3">
+        <v>74.45</v>
+      </c>
+      <c r="K61" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A62" s="33"/>
+      <c r="B62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="3">
+        <v>74.34</v>
+      </c>
+      <c r="K62" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="L62" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A63" s="33"/>
+      <c r="B63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="3">
+        <v>74.66</v>
+      </c>
+      <c r="K63" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="L63" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="M63" s="3">
+        <v>100</v>
+      </c>
+      <c r="N63" s="3">
+        <v>100</v>
+      </c>
+      <c r="O63" s="3">
+        <v>100</v>
+      </c>
+      <c r="P63" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A64" s="33"/>
+      <c r="B64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="K64" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="L64" s="3">
+        <v>100</v>
+      </c>
+      <c r="M64" s="3">
+        <v>100</v>
+      </c>
+      <c r="N64" s="3">
+        <v>100</v>
+      </c>
+      <c r="O64" s="3">
+        <v>100</v>
+      </c>
+      <c r="P64" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A65" s="33"/>
+      <c r="B65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="3">
+        <v>35.46</v>
+      </c>
+      <c r="K65" s="3">
+        <v>100</v>
+      </c>
+      <c r="L65" s="3">
+        <v>100</v>
+      </c>
+      <c r="M65" s="3">
+        <v>100</v>
+      </c>
+      <c r="N65" s="3">
+        <v>100</v>
+      </c>
+      <c r="O65" s="3">
+        <v>100</v>
+      </c>
+      <c r="P65" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A67" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="29"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A68" s="33"/>
+      <c r="B68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="2">
+        <v>100</v>
+      </c>
+      <c r="E68" s="2">
+        <v>200</v>
+      </c>
+      <c r="F68" s="2">
+        <v>300</v>
+      </c>
+      <c r="G68" s="2">
+        <v>400</v>
+      </c>
+      <c r="H68" s="2">
+        <v>500</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K68" s="3">
+        <v>100</v>
+      </c>
+      <c r="L68" s="3">
+        <v>200</v>
+      </c>
+      <c r="M68" s="3">
+        <v>300</v>
+      </c>
+      <c r="N68" s="3">
+        <v>400</v>
+      </c>
+      <c r="O68" s="3">
+        <v>500</v>
+      </c>
+      <c r="P68" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A69" s="33"/>
+      <c r="B69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="3">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="K69" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="L69" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="M69" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="N69" s="3">
+        <v>53.9</v>
+      </c>
+      <c r="O69" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="P69" s="3">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A70" s="33"/>
+      <c r="B70" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="3">
+        <v>69.41</v>
+      </c>
+      <c r="K70" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="L70" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="M70" s="3">
+        <v>50</v>
+      </c>
+      <c r="N70" s="3">
+        <v>57.8</v>
+      </c>
+      <c r="O70" s="3">
+        <v>61.7</v>
+      </c>
+      <c r="P70" s="3">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A71" s="33"/>
+      <c r="B71" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="3">
+        <v>69.84</v>
+      </c>
+      <c r="K71" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="L71" s="3">
+        <v>41.4</v>
+      </c>
+      <c r="M71" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="N71" s="3">
+        <v>53.1</v>
+      </c>
+      <c r="O71" s="3">
+        <v>57.8</v>
+      </c>
+      <c r="P71" s="3">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="33"/>
+      <c r="B72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="3">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="K72" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="L72" s="3">
+        <v>33.6</v>
+      </c>
+      <c r="M72" s="3">
+        <v>39.1</v>
+      </c>
+      <c r="N72" s="3">
+        <v>43</v>
+      </c>
+      <c r="O72" s="3">
+        <v>48.4</v>
+      </c>
+      <c r="P72" s="3">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A73" s="33"/>
+      <c r="B73" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="3">
+        <v>27.81</v>
+      </c>
+      <c r="K73" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="L73" s="3">
+        <v>44.5</v>
+      </c>
+      <c r="M73" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="N73" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="O73" s="3">
+        <v>51.6</v>
+      </c>
+      <c r="P73" s="3">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A74" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A75" s="33"/>
+      <c r="B75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2">
+        <v>200</v>
+      </c>
+      <c r="F75" s="2">
+        <v>300</v>
+      </c>
+      <c r="G75" s="2">
+        <v>400</v>
+      </c>
+      <c r="H75" s="2">
+        <v>500</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="3">
+        <v>100</v>
+      </c>
+      <c r="L75" s="3">
+        <v>200</v>
+      </c>
+      <c r="M75" s="3">
+        <v>300</v>
+      </c>
+      <c r="N75" s="3">
+        <v>400</v>
+      </c>
+      <c r="O75" s="3">
+        <v>500</v>
+      </c>
+      <c r="P75" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A76" s="33"/>
+      <c r="B76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="3">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="K76" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A77" s="33"/>
+      <c r="B77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="3">
+        <v>69.41</v>
+      </c>
+      <c r="K77" s="3">
+        <v>100</v>
+      </c>
+      <c r="L77" s="3">
+        <v>100</v>
+      </c>
+      <c r="M77" s="3">
+        <v>100</v>
+      </c>
+      <c r="N77" s="3">
+        <v>100</v>
+      </c>
+      <c r="O77" s="3">
+        <v>100</v>
+      </c>
+      <c r="P77" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A78" s="33"/>
+      <c r="B78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="3">
+        <v>69.84</v>
+      </c>
+      <c r="K78" s="3">
+        <v>100</v>
+      </c>
+      <c r="L78" s="3">
+        <v>100</v>
+      </c>
+      <c r="M78" s="3">
+        <v>100</v>
+      </c>
+      <c r="N78" s="3">
+        <v>100</v>
+      </c>
+      <c r="O78" s="3">
+        <v>100</v>
+      </c>
+      <c r="P78" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A79" s="33"/>
+      <c r="B79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="3">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="K79" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="L79" s="3">
+        <v>100</v>
+      </c>
+      <c r="M79" s="3">
+        <v>100</v>
+      </c>
+      <c r="N79" s="3">
+        <v>100</v>
+      </c>
+      <c r="O79" s="3">
+        <v>100</v>
+      </c>
+      <c r="P79" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A80" s="33"/>
+      <c r="B80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="3">
+        <v>27.81</v>
+      </c>
+      <c r="K80" s="3">
+        <v>100</v>
+      </c>
+      <c r="L80" s="3">
+        <v>100</v>
+      </c>
+      <c r="M80" s="3">
+        <v>100</v>
+      </c>
+      <c r="N80" s="3">
+        <v>100</v>
+      </c>
+      <c r="O80" s="3">
+        <v>100</v>
+      </c>
+      <c r="P80" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A81" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A82" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="29"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A83" s="33"/>
+      <c r="B83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="2">
+        <v>100</v>
+      </c>
+      <c r="E83" s="2">
+        <v>200</v>
+      </c>
+      <c r="F83" s="2">
+        <v>300</v>
+      </c>
+      <c r="G83" s="2">
+        <v>400</v>
+      </c>
+      <c r="H83" s="2">
+        <v>500</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A84" s="33"/>
+      <c r="B84" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="3">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="K84" s="3">
+        <v>7</v>
+      </c>
+      <c r="L84" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="M84" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="N84" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="O84" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="P84" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A85" s="33"/>
+      <c r="B85" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="3">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="K85" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="L85" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="M85" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="N85" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="O85" s="3">
+        <v>93</v>
+      </c>
+      <c r="P85" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A86" s="33"/>
+      <c r="B86" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="3">
+        <v>74.33</v>
+      </c>
+      <c r="K86" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="L86" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="M86" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="N86" s="3">
+        <v>39.1</v>
+      </c>
+      <c r="O86" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="P86" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A87" s="33"/>
+      <c r="B87" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="3">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="K87" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L87" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="M87" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="N87" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="O87" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="P87" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A88" s="33"/>
+      <c r="B88" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="3">
+        <v>73.66</v>
+      </c>
+      <c r="K88" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="L88" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="M88" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="N88" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="O88" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="P88" s="3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A89" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="32"/>
+      <c r="P89" s="32"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A90" s="33"/>
+      <c r="B90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="2">
+        <v>100</v>
+      </c>
+      <c r="E90" s="2">
+        <v>200</v>
+      </c>
+      <c r="F90" s="2">
+        <v>300</v>
+      </c>
+      <c r="G90" s="2">
+        <v>400</v>
+      </c>
+      <c r="H90" s="2">
+        <v>500</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K90" s="3">
+        <v>100</v>
+      </c>
+      <c r="L90" s="3">
+        <v>200</v>
+      </c>
+      <c r="M90" s="3">
+        <v>300</v>
+      </c>
+      <c r="N90" s="3">
+        <v>400</v>
+      </c>
+      <c r="O90" s="3">
+        <v>500</v>
+      </c>
+      <c r="P90" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A91" s="33"/>
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="3">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="K91" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="L91" s="3">
+        <v>40.6</v>
+      </c>
+      <c r="M91" s="3">
+        <v>55.5</v>
+      </c>
+      <c r="N91" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="O91" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="P91" s="3">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A92" s="33"/>
+      <c r="B92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="3">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="K92" s="3">
+        <v>25</v>
+      </c>
+      <c r="L92" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="M92" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="N92" s="3">
+        <v>60.9</v>
+      </c>
+      <c r="O92" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="P92" s="3">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A93" s="33"/>
+      <c r="B93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="3">
+        <v>74.33</v>
+      </c>
+      <c r="K93" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="L93" s="3">
+        <v>39.1</v>
+      </c>
+      <c r="M93" s="3">
+        <v>51.6</v>
+      </c>
+      <c r="N93" s="3">
+        <v>55.5</v>
+      </c>
+      <c r="O93" s="3">
+        <v>57.8</v>
+      </c>
+      <c r="P93" s="3">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A94" s="33"/>
+      <c r="B94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="3">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="K94" s="3">
+        <v>18</v>
+      </c>
+      <c r="L94" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="M94" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>40.6</v>
+      </c>
+      <c r="O94" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="P94" s="3">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A95" s="33"/>
+      <c r="B95" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="3">
+        <v>73.66</v>
+      </c>
+      <c r="K95" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="L95" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="M95" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="N95" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="O95" s="3">
+        <v>32</v>
+      </c>
+      <c r="P95" s="3">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="42">
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="J82:P82"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="J89:P89"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="J67:P67"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="C74:I74"/>
+    <mergeCell ref="J74:P74"/>
     <mergeCell ref="C44:I44"/>
     <mergeCell ref="J44:P44"/>
     <mergeCell ref="A44:A50"/>
@@ -6102,6 +7664,13 @@
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="C37:I37"/>
     <mergeCell ref="J37:P37"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="J59:P59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6111,10 +7680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A322606-CFC1-4A0E-AC0F-00BFAFEAFD77}">
-  <dimension ref="A1:AD76"/>
+  <dimension ref="A1:AD95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6124,57 +7693,57 @@
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="28">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="33" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="34" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="34"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" s="35"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -6196,7 +7765,7 @@
       <c r="H3" s="3">
         <v>1000</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="4" t="s">
         <v>0</v>
       </c>
@@ -6219,8 +7788,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" s="35"/>
       <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
@@ -6242,7 +7811,7 @@
       <c r="H4" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
@@ -6264,9 +7833,27 @@
       <c r="P4" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="34"/>
+      <c r="R4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="V4" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W4" s="15">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" s="35"/>
       <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
@@ -6288,7 +7875,7 @@
       <c r="H5" s="3">
         <v>18.8</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="11" t="s">
         <v>25</v>
       </c>
@@ -6310,9 +7897,27 @@
       <c r="P5" s="3">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="34"/>
+      <c r="R5" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="S5" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U5" s="15">
+        <v>18</v>
+      </c>
+      <c r="V5" s="15">
+        <v>21.9</v>
+      </c>
+      <c r="W5" s="15">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" s="35"/>
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
@@ -6334,7 +7939,7 @@
       <c r="H6" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>26</v>
       </c>
@@ -6356,9 +7961,27 @@
       <c r="P6" s="3">
         <v>84.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
+      <c r="R6" s="15">
+        <v>7</v>
+      </c>
+      <c r="S6" s="15">
+        <v>19.5</v>
+      </c>
+      <c r="T6" s="15">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="U6" s="15">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="V6" s="15">
+        <v>83.6</v>
+      </c>
+      <c r="W6" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" s="35"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -6380,7 +8003,7 @@
       <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="11" t="s">
         <v>27</v>
       </c>
@@ -6402,9 +8025,27 @@
       <c r="P7" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="34"/>
+      <c r="R7" s="15">
+        <v>24.2</v>
+      </c>
+      <c r="S7" s="15">
+        <v>92.2</v>
+      </c>
+      <c r="T7" s="15">
+        <v>97.7</v>
+      </c>
+      <c r="U7" s="15">
+        <v>100</v>
+      </c>
+      <c r="V7" s="15">
+        <v>100</v>
+      </c>
+      <c r="W7" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="35"/>
       <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
@@ -6426,7 +8067,7 @@
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="11" t="s">
         <v>28</v>
       </c>
@@ -6448,9 +8089,27 @@
       <c r="P8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="34"/>
+      <c r="R8" s="15">
+        <v>61.7</v>
+      </c>
+      <c r="S8" s="15">
+        <v>97.7</v>
+      </c>
+      <c r="T8" s="15">
+        <v>100</v>
+      </c>
+      <c r="U8" s="15">
+        <v>100</v>
+      </c>
+      <c r="V8" s="15">
+        <v>100</v>
+      </c>
+      <c r="W8" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9" s="35"/>
       <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
@@ -6472,7 +8131,7 @@
       <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="34"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="11" t="s">
         <v>29</v>
       </c>
@@ -6494,9 +8153,27 @@
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="35"/>
+      <c r="R9" s="15">
+        <v>97.7</v>
+      </c>
+      <c r="S9" s="15">
+        <v>98.4</v>
+      </c>
+      <c r="T9" s="15">
+        <v>100</v>
+      </c>
+      <c r="U9" s="15">
+        <v>100</v>
+      </c>
+      <c r="V9" s="15">
+        <v>100</v>
+      </c>
+      <c r="W9" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A10" s="36"/>
       <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
@@ -6518,7 +8195,7 @@
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="11" t="s">
         <v>30</v>
       </c>
@@ -6540,35 +8217,53 @@
       <c r="P10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="s">
+      <c r="R10" s="15">
+        <v>98.4</v>
+      </c>
+      <c r="S10" s="15">
+        <v>100</v>
+      </c>
+      <c r="T10" s="15">
+        <v>100</v>
+      </c>
+      <c r="U10" s="15">
+        <v>100</v>
+      </c>
+      <c r="V10" s="15">
+        <v>100</v>
+      </c>
+      <c r="W10" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
@@ -6590,7 +8285,7 @@
       <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="4" t="s">
         <v>0</v>
       </c>
@@ -6613,8 +8308,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" s="33"/>
       <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
@@ -6636,7 +8331,7 @@
       <c r="H13" s="3">
         <v>21.1</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="11" t="s">
         <v>24</v>
       </c>
@@ -6658,9 +8353,27 @@
       <c r="P13" s="3">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
+      <c r="R13">
+        <v>5.5</v>
+      </c>
+      <c r="S13">
+        <v>6.2</v>
+      </c>
+      <c r="T13">
+        <v>7</v>
+      </c>
+      <c r="U13">
+        <v>8.6</v>
+      </c>
+      <c r="V13">
+        <v>9.4</v>
+      </c>
+      <c r="W13">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="33"/>
       <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
@@ -6682,7 +8395,7 @@
       <c r="H14" s="3">
         <v>42.2</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="11" t="s">
         <v>25</v>
       </c>
@@ -6704,9 +8417,27 @@
       <c r="P14" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="31"/>
+      <c r="R14">
+        <v>15.6</v>
+      </c>
+      <c r="S14">
+        <v>20.3</v>
+      </c>
+      <c r="T14">
+        <v>28.1</v>
+      </c>
+      <c r="U14">
+        <v>34.4</v>
+      </c>
+      <c r="V14">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="W14">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15" s="33"/>
       <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
@@ -6728,7 +8459,7 @@
       <c r="H15" s="3">
         <v>54.6</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="11" t="s">
         <v>26</v>
       </c>
@@ -6750,9 +8481,27 @@
       <c r="P15" s="3">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
+      <c r="R15">
+        <v>26.6</v>
+      </c>
+      <c r="S15">
+        <v>40.6</v>
+      </c>
+      <c r="T15">
+        <v>55.5</v>
+      </c>
+      <c r="U15">
+        <v>60.2</v>
+      </c>
+      <c r="V15">
+        <v>62.5</v>
+      </c>
+      <c r="W15">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16" s="33"/>
       <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
@@ -6774,7 +8523,7 @@
       <c r="H16" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="11" t="s">
         <v>27</v>
       </c>
@@ -6796,9 +8545,27 @@
       <c r="P16" s="3">
         <v>72.7</v>
       </c>
+      <c r="R16">
+        <v>54.7</v>
+      </c>
+      <c r="S16">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="T16">
+        <v>67.2</v>
+      </c>
+      <c r="U16">
+        <v>68.8</v>
+      </c>
+      <c r="V16">
+        <v>68.8</v>
+      </c>
+      <c r="W16">
+        <v>71.900000000000006</v>
+      </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
@@ -6820,7 +8587,7 @@
       <c r="H17" s="3">
         <v>70.3</v>
       </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="11" t="s">
         <v>28</v>
       </c>
@@ -6842,9 +8609,27 @@
       <c r="P17" s="3">
         <v>75</v>
       </c>
+      <c r="R17">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="S17">
+        <v>68.8</v>
+      </c>
+      <c r="T17">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="U17">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="V17">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="W17">
+        <v>74.2</v>
+      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
@@ -6866,7 +8651,7 @@
       <c r="H18" s="3">
         <v>75</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="11" t="s">
         <v>29</v>
       </c>
@@ -6888,9 +8673,27 @@
       <c r="P18" s="3">
         <v>78.900000000000006</v>
       </c>
+      <c r="R18">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="S18">
+        <v>75</v>
+      </c>
+      <c r="T18">
+        <v>75.8</v>
+      </c>
+      <c r="U18">
+        <v>77.3</v>
+      </c>
+      <c r="V18">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="W18">
+        <v>78.900000000000006</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
@@ -6912,7 +8715,7 @@
       <c r="H19" s="3">
         <v>80.5</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="11" t="s">
         <v>30</v>
       </c>
@@ -6934,59 +8737,77 @@
       <c r="P19" s="3">
         <v>85.2</v>
       </c>
+      <c r="R19">
+        <v>75.8</v>
+      </c>
+      <c r="S19">
+        <v>77.3</v>
+      </c>
+      <c r="T19">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="U19">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="V19">
+        <v>79.7</v>
+      </c>
+      <c r="W19">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="20" spans="1:25" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="28">
         <v>0</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="33" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="34" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
@@ -7008,7 +8829,7 @@
       <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="4" t="s">
         <v>0</v>
       </c>
@@ -7032,7 +8853,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="11" t="s">
         <v>24</v>
       </c>
@@ -7054,7 +8875,7 @@
       <c r="H23" s="3">
         <v>46.9</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="11" t="s">
         <v>24</v>
       </c>
@@ -7078,7 +8899,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
@@ -7100,7 +8921,7 @@
       <c r="H24" s="3">
         <v>90.6</v>
       </c>
-      <c r="I24" s="34"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="11" t="s">
         <v>25</v>
       </c>
@@ -7124,7 +8945,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
@@ -7146,7 +8967,7 @@
       <c r="H25" s="3">
         <v>100</v>
       </c>
-      <c r="I25" s="34"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="11" t="s">
         <v>26</v>
       </c>
@@ -7170,7 +8991,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="11" t="s">
         <v>27</v>
       </c>
@@ -7192,7 +9013,7 @@
       <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="34"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="11" t="s">
         <v>27</v>
       </c>
@@ -7216,7 +9037,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
@@ -7238,7 +9059,7 @@
       <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="34"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="11" t="s">
         <v>28</v>
       </c>
@@ -7262,7 +9083,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="11" t="s">
         <v>29</v>
       </c>
@@ -7284,7 +9105,7 @@
       <c r="H28" s="3">
         <v>100</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="11" t="s">
         <v>29</v>
       </c>
@@ -7308,7 +9129,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A29" s="35"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
@@ -7330,7 +9151,7 @@
       <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="I29" s="35"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="11" t="s">
         <v>30</v>
       </c>
@@ -7360,30 +9181,30 @@
       <c r="Y29" s="15"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
@@ -7393,7 +9214,7 @@
       <c r="Y30" s="15"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A31" s="31"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
@@ -7415,7 +9236,7 @@
       <c r="H31" s="3">
         <v>1000</v>
       </c>
-      <c r="I31" s="31"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="4" t="s">
         <v>0</v>
       </c>
@@ -7446,7 +9267,7 @@
       <c r="Y31" s="15"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A32" s="31"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="11" t="s">
         <v>24</v>
       </c>
@@ -7468,7 +9289,7 @@
       <c r="H32" s="3">
         <v>85.2</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="11" t="s">
         <v>24</v>
       </c>
@@ -7499,7 +9320,7 @@
       <c r="Y32" s="15"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A33" s="31"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="11" t="s">
         <v>25</v>
       </c>
@@ -7521,7 +9342,7 @@
       <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="11" t="s">
         <v>25</v>
       </c>
@@ -7552,7 +9373,7 @@
       <c r="Y33" s="15"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A34" s="31"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="11" t="s">
         <v>26</v>
       </c>
@@ -7574,7 +9395,7 @@
       <c r="H34" s="3">
         <v>100</v>
       </c>
-      <c r="I34" s="31"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="11" t="s">
         <v>26</v>
       </c>
@@ -7605,7 +9426,7 @@
       <c r="Y34" s="15"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A35" s="31"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="11" t="s">
         <v>27</v>
       </c>
@@ -7627,7 +9448,7 @@
       <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="31"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="11" t="s">
         <v>27</v>
       </c>
@@ -7658,7 +9479,7 @@
       <c r="Y35" s="15"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A36" s="31"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="11" t="s">
         <v>28</v>
       </c>
@@ -7680,7 +9501,7 @@
       <c r="H36" s="3">
         <v>100</v>
       </c>
-      <c r="I36" s="31"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="11" t="s">
         <v>28</v>
       </c>
@@ -7710,7 +9531,7 @@
       <c r="X36" s="15"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A37" s="31"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="11" t="s">
         <v>29</v>
       </c>
@@ -7732,7 +9553,7 @@
       <c r="H37" s="3">
         <v>100</v>
       </c>
-      <c r="I37" s="31"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="11" t="s">
         <v>29</v>
       </c>
@@ -7756,7 +9577,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A38" s="31"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="11" t="s">
         <v>30</v>
       </c>
@@ -7778,7 +9599,7 @@
       <c r="H38" s="3">
         <v>100</v>
       </c>
-      <c r="I38" s="31"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="11" t="s">
         <v>30</v>
       </c>
@@ -7802,57 +9623,57 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="28">
         <v>0</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="33" t="s">
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="34" t="s">
         <v>5</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K40" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="27"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="29"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A41" s="34"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="4" t="s">
         <v>0</v>
       </c>
@@ -7874,7 +9695,7 @@
       <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="34"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="4" t="s">
         <v>0</v>
       </c>
@@ -7898,7 +9719,7 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A42" s="34"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="11" t="s">
         <v>24</v>
       </c>
@@ -7920,7 +9741,7 @@
       <c r="H42" s="3">
         <v>46.9</v>
       </c>
-      <c r="I42" s="34"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="11" t="s">
         <v>24</v>
       </c>
@@ -7944,7 +9765,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A43" s="34"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="11" t="s">
         <v>25</v>
       </c>
@@ -7966,7 +9787,7 @@
       <c r="H43" s="3">
         <v>90.6</v>
       </c>
-      <c r="I43" s="34"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="11" t="s">
         <v>25</v>
       </c>
@@ -7990,7 +9811,7 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A44" s="34"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="11" t="s">
         <v>26</v>
       </c>
@@ -8012,7 +9833,7 @@
       <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="34"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="11" t="s">
         <v>26</v>
       </c>
@@ -8036,7 +9857,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A45" s="34"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="11" t="s">
         <v>27</v>
       </c>
@@ -8058,7 +9879,7 @@
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="34"/>
+      <c r="I45" s="35"/>
       <c r="J45" s="11" t="s">
         <v>27</v>
       </c>
@@ -8082,7 +9903,7 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A46" s="34"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="11" t="s">
         <v>28</v>
       </c>
@@ -8104,7 +9925,7 @@
       <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="34"/>
+      <c r="I46" s="35"/>
       <c r="J46" s="11" t="s">
         <v>28</v>
       </c>
@@ -8128,7 +9949,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A47" s="34"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="11" t="s">
         <v>29</v>
       </c>
@@ -8150,7 +9971,7 @@
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="34"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="11" t="s">
         <v>29</v>
       </c>
@@ -8174,7 +9995,7 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A48" s="35"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="11" t="s">
         <v>30</v>
       </c>
@@ -8196,7 +10017,7 @@
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="35"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="11" t="s">
         <v>30</v>
       </c>
@@ -8220,33 +10041,33 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31" t="s">
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="33" t="s">
         <v>6</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A50" s="31"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="4" t="s">
         <v>0</v>
       </c>
@@ -8268,7 +10089,7 @@
       <c r="H50" s="3">
         <v>1000</v>
       </c>
-      <c r="I50" s="31"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="4" t="s">
         <v>0</v>
       </c>
@@ -8298,7 +10119,7 @@
       <c r="AD50" s="15"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A51" s="31"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="11" t="s">
         <v>24</v>
       </c>
@@ -8320,7 +10141,7 @@
       <c r="H51" s="3">
         <v>85.2</v>
       </c>
-      <c r="I51" s="31"/>
+      <c r="I51" s="33"/>
       <c r="J51" s="11" t="s">
         <v>24</v>
       </c>
@@ -8350,7 +10171,7 @@
       <c r="AD51" s="15"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A52" s="31"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="11" t="s">
         <v>25</v>
       </c>
@@ -8372,7 +10193,7 @@
       <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="31"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="11" t="s">
         <v>25</v>
       </c>
@@ -8402,7 +10223,7 @@
       <c r="AD52" s="15"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A53" s="31"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="11" t="s">
         <v>26</v>
       </c>
@@ -8424,7 +10245,7 @@
       <c r="H53" s="3">
         <v>100</v>
       </c>
-      <c r="I53" s="31"/>
+      <c r="I53" s="33"/>
       <c r="J53" s="11" t="s">
         <v>26</v>
       </c>
@@ -8454,7 +10275,7 @@
       <c r="AD53" s="15"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A54" s="31"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="11" t="s">
         <v>27</v>
       </c>
@@ -8476,7 +10297,7 @@
       <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="31"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="11" t="s">
         <v>27</v>
       </c>
@@ -8506,7 +10327,7 @@
       <c r="AD54" s="15"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A55" s="31"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="11" t="s">
         <v>28</v>
       </c>
@@ -8528,7 +10349,7 @@
       <c r="H55" s="3">
         <v>100</v>
       </c>
-      <c r="I55" s="31"/>
+      <c r="I55" s="33"/>
       <c r="J55" s="11" t="s">
         <v>28</v>
       </c>
@@ -8558,7 +10379,7 @@
       <c r="AD55" s="15"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A56" s="31"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="11" t="s">
         <v>29</v>
       </c>
@@ -8580,7 +10401,7 @@
       <c r="H56" s="3">
         <v>100</v>
       </c>
-      <c r="I56" s="31"/>
+      <c r="I56" s="33"/>
       <c r="J56" s="11" t="s">
         <v>29</v>
       </c>
@@ -8610,7 +10431,7 @@
       <c r="AD56" s="15"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A57" s="31"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="11" t="s">
         <v>30</v>
       </c>
@@ -8632,7 +10453,7 @@
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="31"/>
+      <c r="I57" s="33"/>
       <c r="J57" s="11" t="s">
         <v>30</v>
       </c>
@@ -8656,57 +10477,57 @@
       </c>
     </row>
     <row r="58" spans="1:30" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="28">
         <v>0</v>
       </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="33" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="34" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K59" s="26">
+      <c r="K59" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="29"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A60" s="34"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="4" t="s">
         <v>0</v>
       </c>
@@ -8728,7 +10549,7 @@
       <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="34"/>
+      <c r="I60" s="35"/>
       <c r="J60" s="4" t="s">
         <v>0</v>
       </c>
@@ -8752,7 +10573,7 @@
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A61" s="34"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="11" t="s">
         <v>24</v>
       </c>
@@ -8774,7 +10595,7 @@
       <c r="H61" s="3">
         <v>3.1</v>
       </c>
-      <c r="I61" s="34"/>
+      <c r="I61" s="35"/>
       <c r="J61" s="11" t="s">
         <v>24</v>
       </c>
@@ -8798,7 +10619,7 @@
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A62" s="34"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="11" t="s">
         <v>25</v>
       </c>
@@ -8820,7 +10641,7 @@
       <c r="H62" s="3">
         <v>6.2</v>
       </c>
-      <c r="I62" s="34"/>
+      <c r="I62" s="35"/>
       <c r="J62" s="11" t="s">
         <v>25</v>
       </c>
@@ -8844,7 +10665,7 @@
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A63" s="34"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="11" t="s">
         <v>26</v>
       </c>
@@ -8866,7 +10687,7 @@
       <c r="H63" s="3">
         <v>7</v>
       </c>
-      <c r="I63" s="34"/>
+      <c r="I63" s="35"/>
       <c r="J63" s="11" t="s">
         <v>26</v>
       </c>
@@ -8890,7 +10711,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A64" s="34"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="11" t="s">
         <v>27</v>
       </c>
@@ -8912,7 +10733,7 @@
       <c r="H64" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="I64" s="34"/>
+      <c r="I64" s="35"/>
       <c r="J64" s="11" t="s">
         <v>27</v>
       </c>
@@ -8936,7 +10757,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A65" s="34"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="11" t="s">
         <v>28</v>
       </c>
@@ -8958,7 +10779,7 @@
       <c r="H65" s="3">
         <v>11.7</v>
       </c>
-      <c r="I65" s="34"/>
+      <c r="I65" s="35"/>
       <c r="J65" s="11" t="s">
         <v>28</v>
       </c>
@@ -8982,7 +10803,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A66" s="34"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="11" t="s">
         <v>29</v>
       </c>
@@ -9004,7 +10825,7 @@
       <c r="H66" s="3">
         <v>14.1</v>
       </c>
-      <c r="I66" s="34"/>
+      <c r="I66" s="35"/>
       <c r="J66" s="11" t="s">
         <v>29</v>
       </c>
@@ -9028,7 +10849,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A67" s="35"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="11" t="s">
         <v>30</v>
       </c>
@@ -9050,7 +10871,7 @@
       <c r="H67" s="3">
         <v>18.8</v>
       </c>
-      <c r="I67" s="35"/>
+      <c r="I67" s="36"/>
       <c r="J67" s="11" t="s">
         <v>30</v>
       </c>
@@ -9074,33 +10895,33 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="31" t="s">
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="33" t="s">
         <v>6</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A69" s="31"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="4" t="s">
         <v>0</v>
       </c>
@@ -9122,7 +10943,7 @@
       <c r="H69" s="3">
         <v>1000</v>
       </c>
-      <c r="I69" s="31"/>
+      <c r="I69" s="33"/>
       <c r="J69" s="4" t="s">
         <v>0</v>
       </c>
@@ -9146,7 +10967,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A70" s="31"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="11" t="s">
         <v>24</v>
       </c>
@@ -9168,7 +10989,7 @@
       <c r="H70" s="3">
         <v>21.1</v>
       </c>
-      <c r="I70" s="31"/>
+      <c r="I70" s="33"/>
       <c r="J70" s="11" t="s">
         <v>24</v>
       </c>
@@ -9192,7 +11013,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A71" s="31"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="11" t="s">
         <v>25</v>
       </c>
@@ -9214,7 +11035,7 @@
       <c r="H71" s="3">
         <v>28.9</v>
       </c>
-      <c r="I71" s="31"/>
+      <c r="I71" s="33"/>
       <c r="J71" s="11" t="s">
         <v>25</v>
       </c>
@@ -9238,7 +11059,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A72" s="31"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="11" t="s">
         <v>26</v>
       </c>
@@ -9260,7 +11081,7 @@
       <c r="H72" s="3">
         <v>34.4</v>
       </c>
-      <c r="I72" s="31"/>
+      <c r="I72" s="33"/>
       <c r="J72" s="11" t="s">
         <v>26</v>
       </c>
@@ -9284,7 +11105,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A73" s="31"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="11" t="s">
         <v>27</v>
       </c>
@@ -9306,7 +11127,7 @@
       <c r="H73" s="3">
         <v>39.1</v>
       </c>
-      <c r="I73" s="31"/>
+      <c r="I73" s="33"/>
       <c r="J73" s="11" t="s">
         <v>27</v>
       </c>
@@ -9330,7 +11151,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A74" s="31"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="11" t="s">
         <v>28</v>
       </c>
@@ -9352,7 +11173,7 @@
       <c r="H74" s="3">
         <v>44.5</v>
       </c>
-      <c r="I74" s="31"/>
+      <c r="I74" s="33"/>
       <c r="J74" s="11" t="s">
         <v>28</v>
       </c>
@@ -9376,7 +11197,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A75" s="31"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="11" t="s">
         <v>29</v>
       </c>
@@ -9398,7 +11219,7 @@
       <c r="H75" s="3">
         <v>50</v>
       </c>
-      <c r="I75" s="31"/>
+      <c r="I75" s="33"/>
       <c r="J75" s="11" t="s">
         <v>29</v>
       </c>
@@ -9422,7 +11243,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A76" s="31"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="11" t="s">
         <v>30</v>
       </c>
@@ -9444,7 +11265,7 @@
       <c r="H76" s="3">
         <v>58.6</v>
       </c>
-      <c r="I76" s="31"/>
+      <c r="I76" s="33"/>
       <c r="J76" s="11" t="s">
         <v>30</v>
       </c>
@@ -9467,8 +11288,820 @@
         <v>56.2</v>
       </c>
     </row>
+    <row r="77" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A77" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A78" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="28">
+        <v>0</v>
+      </c>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="29"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A79" s="35"/>
+      <c r="B79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>100</v>
+      </c>
+      <c r="D79" s="3">
+        <v>200</v>
+      </c>
+      <c r="E79" s="3">
+        <v>300</v>
+      </c>
+      <c r="F79" s="3">
+        <v>400</v>
+      </c>
+      <c r="G79" s="3">
+        <v>500</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I79" s="35"/>
+      <c r="J79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>100</v>
+      </c>
+      <c r="L79" s="3">
+        <v>200</v>
+      </c>
+      <c r="M79" s="3">
+        <v>300</v>
+      </c>
+      <c r="N79" s="3">
+        <v>400</v>
+      </c>
+      <c r="O79" s="3">
+        <v>500</v>
+      </c>
+      <c r="P79" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A80" s="35"/>
+      <c r="B80" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G80" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H80" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I80" s="35"/>
+      <c r="J80" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L80" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="M80" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="N80" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="O80" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="P80" s="3">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A81" s="35"/>
+      <c r="B81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="H81" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="I81" s="35"/>
+      <c r="J81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="L81" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="M81" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="N81" s="3">
+        <v>85.2</v>
+      </c>
+      <c r="O81" s="3">
+        <v>86.7</v>
+      </c>
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A82" s="35"/>
+      <c r="B82" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="D82" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="E82" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="F82" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="G82" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H82" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="I82" s="35"/>
+      <c r="J82" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K82" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="L82" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="M82" s="3">
+        <v>100</v>
+      </c>
+      <c r="N82" s="3">
+        <v>100</v>
+      </c>
+      <c r="O82" s="3">
+        <v>100</v>
+      </c>
+      <c r="P82" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A83" s="35"/>
+      <c r="B83" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="D83" s="3">
+        <v>43</v>
+      </c>
+      <c r="E83" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="G83" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="35"/>
+      <c r="J83" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A84" s="35"/>
+      <c r="B84" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="3">
+        <v>30.4</v>
+      </c>
+      <c r="D84" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="E84" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="F84" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="G84" s="3">
+        <v>100</v>
+      </c>
+      <c r="H84" s="3">
+        <v>100</v>
+      </c>
+      <c r="I84" s="35"/>
+      <c r="J84" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" s="3">
+        <v>100</v>
+      </c>
+      <c r="L84" s="3">
+        <v>100</v>
+      </c>
+      <c r="M84" s="3">
+        <v>100</v>
+      </c>
+      <c r="N84" s="3">
+        <v>100</v>
+      </c>
+      <c r="O84" s="3">
+        <v>100</v>
+      </c>
+      <c r="P84" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A85" s="35"/>
+      <c r="B85" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="D85" s="3">
+        <v>97</v>
+      </c>
+      <c r="E85" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="F85" s="3">
+        <v>100</v>
+      </c>
+      <c r="G85" s="3">
+        <v>100</v>
+      </c>
+      <c r="H85" s="3">
+        <v>100</v>
+      </c>
+      <c r="I85" s="35"/>
+      <c r="J85" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K85" s="3">
+        <v>100</v>
+      </c>
+      <c r="L85" s="3">
+        <v>100</v>
+      </c>
+      <c r="M85" s="3">
+        <v>100</v>
+      </c>
+      <c r="N85" s="3">
+        <v>100</v>
+      </c>
+      <c r="O85" s="3">
+        <v>100</v>
+      </c>
+      <c r="P85" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A86" s="36"/>
+      <c r="B86" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="D86" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="E86" s="3">
+        <v>100</v>
+      </c>
+      <c r="F86" s="3">
+        <v>100</v>
+      </c>
+      <c r="G86" s="3">
+        <v>100</v>
+      </c>
+      <c r="H86" s="3">
+        <v>100</v>
+      </c>
+      <c r="I86" s="36"/>
+      <c r="J86" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="3">
+        <v>100</v>
+      </c>
+      <c r="L86" s="3">
+        <v>100</v>
+      </c>
+      <c r="M86" s="3">
+        <v>100</v>
+      </c>
+      <c r="N86" s="3">
+        <v>100</v>
+      </c>
+      <c r="O86" s="3">
+        <v>100</v>
+      </c>
+      <c r="P86" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A87" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A88" s="33"/>
+      <c r="B88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>100</v>
+      </c>
+      <c r="D88" s="3">
+        <v>200</v>
+      </c>
+      <c r="E88" s="3">
+        <v>300</v>
+      </c>
+      <c r="F88" s="3">
+        <v>400</v>
+      </c>
+      <c r="G88" s="3">
+        <v>500</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I88" s="33"/>
+      <c r="J88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <v>100</v>
+      </c>
+      <c r="L88" s="3">
+        <v>200</v>
+      </c>
+      <c r="M88" s="3">
+        <v>300</v>
+      </c>
+      <c r="N88" s="3">
+        <v>400</v>
+      </c>
+      <c r="O88" s="3">
+        <v>500</v>
+      </c>
+      <c r="P88" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A89" s="33"/>
+      <c r="B89" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="D89" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="E89" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="G89" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="H89" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="I89" s="33"/>
+      <c r="J89" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" s="3">
+        <v>25</v>
+      </c>
+      <c r="L89" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="M89" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="N89" s="3">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="O89" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="P89" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A90" s="33"/>
+      <c r="B90" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="D90" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="E90" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="F90" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G90" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H90" s="3">
+        <v>42.2</v>
+      </c>
+      <c r="I90" s="33"/>
+      <c r="J90" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="L90" s="3">
+        <v>93</v>
+      </c>
+      <c r="M90" s="3">
+        <v>93</v>
+      </c>
+      <c r="N90" s="3">
+        <v>93</v>
+      </c>
+      <c r="O90" s="3">
+        <v>93</v>
+      </c>
+      <c r="P90" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A91" s="33"/>
+      <c r="B91" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="D91" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>43</v>
+      </c>
+      <c r="F91" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="G91" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="H91" s="3">
+        <v>54.6</v>
+      </c>
+      <c r="I91" s="33"/>
+      <c r="J91" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K91" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="L91" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="M91" s="3">
+        <v>100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A92" s="33"/>
+      <c r="B92" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="3">
+        <v>46.1</v>
+      </c>
+      <c r="D92" s="3">
+        <v>59.4</v>
+      </c>
+      <c r="E92" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="F92" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="G92" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H92" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="I92" s="33"/>
+      <c r="J92" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="L92" s="3">
+        <v>100</v>
+      </c>
+      <c r="M92" s="3">
+        <v>100</v>
+      </c>
+      <c r="N92" s="3">
+        <v>100</v>
+      </c>
+      <c r="O92" s="3">
+        <v>100</v>
+      </c>
+      <c r="P92" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A93" s="33"/>
+      <c r="B93" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="3">
+        <v>55.5</v>
+      </c>
+      <c r="D93" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="E93" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="F93" s="3">
+        <v>64.8</v>
+      </c>
+      <c r="G93" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="H93" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="I93" s="33"/>
+      <c r="J93" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" s="3">
+        <v>100</v>
+      </c>
+      <c r="L93" s="3">
+        <v>100</v>
+      </c>
+      <c r="M93" s="3">
+        <v>100</v>
+      </c>
+      <c r="N93" s="3">
+        <v>100</v>
+      </c>
+      <c r="O93" s="3">
+        <v>100</v>
+      </c>
+      <c r="P93" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A94" s="33"/>
+      <c r="B94" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="3">
+        <v>64.8</v>
+      </c>
+      <c r="D94" s="3">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="E94" s="3">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="F94" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="G94" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="H94" s="3">
+        <v>75</v>
+      </c>
+      <c r="I94" s="33"/>
+      <c r="J94" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>100</v>
+      </c>
+      <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A95" s="33"/>
+      <c r="B95" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="D95" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E95" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="F95" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="G95" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="H95" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="I95" s="33"/>
+      <c r="J95" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K95" s="3">
+        <v>100</v>
+      </c>
+      <c r="L95" s="3">
+        <v>100</v>
+      </c>
+      <c r="M95" s="3">
+        <v>100</v>
+      </c>
+      <c r="N95" s="3">
+        <v>100</v>
+      </c>
+      <c r="O95" s="3">
+        <v>100</v>
+      </c>
+      <c r="P95" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="45">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C11:H11"/>
@@ -9504,7 +12137,16 @@
     <mergeCell ref="A59:A67"/>
     <mergeCell ref="C59:H59"/>
     <mergeCell ref="I59:I67"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="I87:I95"/>
+    <mergeCell ref="K87:P87"/>
     <mergeCell ref="K59:P59"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A78:A86"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="I78:I86"/>
+    <mergeCell ref="K78:P78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attack/Experiment Results.xlsx
+++ b/attack/Experiment Results.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D58249-B3BE-4DA4-A428-EC416E8B3283}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E50B7E-C740-4697-BF41-22AE7A2E91A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22268" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="22268" windowHeight="12645" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Skin Cancer" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="45">
   <si>
     <t># of queries</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +170,36 @@
   </si>
   <si>
     <t>add gaussian noise at input layer and use model trained with gaussian noise (various sigma random)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkinCancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack Successful Rate (%) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Successful Rate pretrained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin Cancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Successful Rate (%) without any defense</t>
+  </si>
+  <si>
+    <t>Attack Successful Rate (%) without any defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Successful Rate (%) our methods</t>
+  </si>
+  <si>
+    <t>Attack Successful Rate (%) our methods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,13 +454,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -441,13 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,16 +484,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -481,6 +518,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -776,24 +822,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -802,24 +848,24 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="27" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
@@ -1158,33 +1204,33 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="33"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1278,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="33"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1280,7 +1326,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="33"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1374,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +1422,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="33"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1470,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1518,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="33"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1520,7 +1566,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1614,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1662,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="33"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1664,24 +1710,24 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="21" t="s">
@@ -1690,24 +1736,24 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="27" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
@@ -2292,24 +2338,24 @@
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="32" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="22"/>
@@ -2888,24 +2934,24 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="20"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="35"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" s="21" t="s">
@@ -2914,24 +2960,24 @@
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="27" t="s">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="29"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" s="22"/>
@@ -3228,24 +3274,24 @@
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="27" t="s">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="29"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="27"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57" s="22"/>
@@ -3825,6 +3871,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="A56:A68"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A22:A34"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="J35:P35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="C2:I2"/>
@@ -3832,20 +3892,6 @@
     <mergeCell ref="A10:A20"/>
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="J10:P10"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:A34"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="J35:P35"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="C49:I49"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="A56:A68"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="J56:P56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3855,10 +3901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W96"/>
+  <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView topLeftCell="A63" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3870,24 +3916,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -3896,24 +3942,24 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="27" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
@@ -4276,30 +4322,30 @@
       <c r="W9" s="15"/>
     </row>
     <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -4308,7 +4354,7 @@
       <c r="W10" s="15"/>
     </row>
     <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="33"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -4362,7 +4408,7 @@
       <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4416,7 +4462,7 @@
       <c r="W12" s="15"/>
     </row>
     <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="33"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -4464,7 +4510,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -4512,7 +4558,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="33"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -4560,7 +4606,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -4608,7 +4654,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="33"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
@@ -4656,7 +4702,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -4704,7 +4750,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
@@ -4752,7 +4798,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="33"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -4800,24 +4846,24 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
     </row>
     <row r="22" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="21" t="s">
@@ -4826,24 +4872,24 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="27" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
@@ -5140,24 +5186,24 @@
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="32" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="22"/>
@@ -5448,53 +5494,53 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
     </row>
     <row r="37" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="27" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="29"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
     </row>
     <row r="38" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="33"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="4" t="s">
         <v>0</v>
       </c>
@@ -5542,7 +5588,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="33"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
@@ -5590,7 +5636,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="33"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="12" t="s">
         <v>8</v>
       </c>
@@ -5638,7 +5684,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="33"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="12" t="s">
         <v>9</v>
       </c>
@@ -5686,7 +5732,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="33"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="11" t="s">
         <v>4</v>
       </c>
@@ -5734,7 +5780,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="33"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="11" t="s">
         <v>3</v>
       </c>
@@ -5782,33 +5828,33 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="32" t="s">
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
     </row>
     <row r="45" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="33"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
@@ -5856,7 +5902,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="33"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
@@ -5904,7 +5950,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="33"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="5" t="s">
         <v>8</v>
       </c>
@@ -5952,7 +5998,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="33"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="5" t="s">
         <v>9</v>
       </c>
@@ -6000,7 +6046,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="33"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="4" t="s">
         <v>4</v>
       </c>
@@ -6048,7 +6094,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="33"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="4" t="s">
         <v>3</v>
       </c>
@@ -6096,53 +6142,53 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
     </row>
     <row r="52" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="27" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="29"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="27"/>
     </row>
     <row r="53" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="33"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -6190,7 +6236,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="33"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="11" t="s">
         <v>2</v>
       </c>
@@ -6224,7 +6270,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="33"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="12" t="s">
         <v>8</v>
       </c>
@@ -6258,7 +6304,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A56" s="33"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="12" t="s">
         <v>9</v>
       </c>
@@ -6292,7 +6338,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A57" s="33"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="11" t="s">
         <v>4</v>
       </c>
@@ -6326,7 +6372,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A58" s="33"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="11" t="s">
         <v>3</v>
       </c>
@@ -6360,33 +6406,33 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="32" t="s">
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A60" s="33"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="4" t="s">
         <v>0</v>
       </c>
@@ -6434,7 +6480,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A61" s="33"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="4" t="s">
         <v>2</v>
       </c>
@@ -6468,7 +6514,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A62" s="33"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="5" t="s">
         <v>8</v>
       </c>
@@ -6502,7 +6548,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A63" s="33"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="5" t="s">
         <v>9</v>
       </c>
@@ -6536,7 +6582,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A64" s="33"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="4" t="s">
         <v>4</v>
       </c>
@@ -6569,8 +6615,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A65" s="33"/>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A65" s="28"/>
       <c r="B65" s="4" t="s">
         <v>3</v>
       </c>
@@ -6603,54 +6649,54 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="19" t="s">
+    <row r="66" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A67" s="33" t="s">
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A67" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="27" t="s">
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="29"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="33"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="27"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A68" s="28"/>
       <c r="B68" s="4" t="s">
         <v>0</v>
       </c>
@@ -6697,8 +6743,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A69" s="33"/>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A69" s="28"/>
       <c r="B69" s="11" t="s">
         <v>2</v>
       </c>
@@ -6731,8 +6777,8 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A70" s="33"/>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A70" s="28"/>
       <c r="B70" s="12" t="s">
         <v>8</v>
       </c>
@@ -6765,8 +6811,8 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A71" s="33"/>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A71" s="28"/>
       <c r="B71" s="12" t="s">
         <v>9</v>
       </c>
@@ -6799,8 +6845,8 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="33"/>
+    <row r="72" spans="1:26" ht="15.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="28"/>
       <c r="B72" s="11" t="s">
         <v>4</v>
       </c>
@@ -6833,8 +6879,8 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A73" s="33"/>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A73" s="28"/>
       <c r="B73" s="11" t="s">
         <v>3</v>
       </c>
@@ -6867,34 +6913,34 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A74" s="33" t="s">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A74" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="32" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A75" s="33"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A75" s="28"/>
       <c r="B75" s="4" t="s">
         <v>0</v>
       </c>
@@ -6941,8 +6987,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A76" s="33"/>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A76" s="28"/>
       <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
@@ -6974,9 +7020,15 @@
       <c r="P76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A77" s="33"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A77" s="28"/>
       <c r="B77" s="5" t="s">
         <v>8</v>
       </c>
@@ -7008,9 +7060,15 @@
       <c r="P77" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A78" s="33"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A78" s="28"/>
       <c r="B78" s="5" t="s">
         <v>9</v>
       </c>
@@ -7042,9 +7100,15 @@
       <c r="P78" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A79" s="33"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A79" s="28"/>
       <c r="B79" s="4" t="s">
         <v>4</v>
       </c>
@@ -7076,9 +7140,15 @@
       <c r="P79" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A80" s="33"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A80" s="28"/>
       <c r="B80" s="4" t="s">
         <v>3</v>
       </c>
@@ -7110,55 +7180,67 @@
       <c r="P80" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A81" s="19" t="s">
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
+    </row>
+    <row r="81" spans="1:26" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A81" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A82" s="33" t="s">
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A82" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="27" t="s">
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="29"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A83" s="33"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="27"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A83" s="28"/>
       <c r="B83" s="4" t="s">
         <v>0</v>
       </c>
@@ -7205,8 +7287,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A84" s="33"/>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A84" s="28"/>
       <c r="B84" s="11" t="s">
         <v>2</v>
       </c>
@@ -7221,26 +7303,26 @@
         <v>74.540000000000006</v>
       </c>
       <c r="K84" s="3">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="L84" s="3">
-        <v>19.5</v>
+        <v>17.2</v>
       </c>
       <c r="M84" s="3">
-        <v>39.799999999999997</v>
+        <v>37.5</v>
       </c>
       <c r="N84" s="3">
-        <v>64.099999999999994</v>
+        <v>55.5</v>
       </c>
       <c r="O84" s="3">
-        <v>83.6</v>
+        <v>75.8</v>
       </c>
       <c r="P84" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A85" s="33"/>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A85" s="28"/>
       <c r="B85" s="12" t="s">
         <v>8</v>
       </c>
@@ -7255,26 +7337,26 @@
         <v>74.349999999999994</v>
       </c>
       <c r="K85" s="3">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="L85" s="3">
-        <v>20.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M85" s="3">
-        <v>47.7</v>
+        <v>30.5</v>
       </c>
       <c r="N85" s="3">
-        <v>72.7</v>
+        <v>46.1</v>
       </c>
       <c r="O85" s="3">
-        <v>93</v>
+        <v>58.6</v>
       </c>
       <c r="P85" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A86" s="33"/>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A86" s="28"/>
       <c r="B86" s="12" t="s">
         <v>9</v>
       </c>
@@ -7289,26 +7371,26 @@
         <v>74.33</v>
       </c>
       <c r="K86" s="3">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="L86" s="3">
-        <v>14.1</v>
+        <v>19.5</v>
       </c>
       <c r="M86" s="3">
-        <v>30.5</v>
+        <v>34.4</v>
       </c>
       <c r="N86" s="3">
-        <v>39.1</v>
+        <v>47.7</v>
       </c>
       <c r="O86" s="3">
-        <v>62.5</v>
+        <v>58.6</v>
       </c>
       <c r="P86" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A87" s="33"/>
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A87" s="28"/>
       <c r="B87" s="11" t="s">
         <v>4</v>
       </c>
@@ -7323,26 +7405,26 @@
         <v>74.739999999999995</v>
       </c>
       <c r="K87" s="3">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="L87" s="3">
-        <v>8.6</v>
+        <v>4.7</v>
       </c>
       <c r="M87" s="3">
-        <v>13.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N87" s="3">
-        <v>17.2</v>
+        <v>14.1</v>
       </c>
       <c r="O87" s="3">
-        <v>21.9</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="P87" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A88" s="33"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A88" s="28"/>
       <c r="B88" s="11" t="s">
         <v>3</v>
       </c>
@@ -7363,46 +7445,46 @@
         <v>4.7</v>
       </c>
       <c r="M88" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="N88" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="O88" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="P88" s="3">
         <v>6.2</v>
       </c>
-      <c r="N88" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="O88" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="P88" s="3">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A89" s="33" t="s">
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A89" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="32" t="s">
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="32"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A90" s="33"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A90" s="28"/>
       <c r="B90" s="4" t="s">
         <v>0</v>
       </c>
@@ -7449,8 +7531,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A91" s="33"/>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A91" s="28"/>
       <c r="B91" s="4" t="s">
         <v>2</v>
       </c>
@@ -7465,26 +7547,26 @@
         <v>74.540000000000006</v>
       </c>
       <c r="K91" s="3">
-        <v>26.6</v>
+        <v>34.4</v>
       </c>
       <c r="L91" s="3">
-        <v>40.6</v>
+        <v>49.2</v>
       </c>
       <c r="M91" s="3">
-        <v>55.5</v>
+        <v>53.9</v>
       </c>
       <c r="N91" s="3">
-        <v>60.2</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="O91" s="3">
-        <v>62.5</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="P91" s="3">
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A92" s="33"/>
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A92" s="28"/>
       <c r="B92" s="5" t="s">
         <v>8</v>
       </c>
@@ -7499,26 +7581,26 @@
         <v>74.349999999999994</v>
       </c>
       <c r="K92" s="3">
-        <v>25</v>
+        <v>28.9</v>
       </c>
       <c r="L92" s="3">
-        <v>49.2</v>
+        <v>46.9</v>
       </c>
       <c r="M92" s="3">
-        <v>56.2</v>
+        <v>55.5</v>
       </c>
       <c r="N92" s="3">
-        <v>60.9</v>
+        <v>58.6</v>
       </c>
       <c r="O92" s="3">
-        <v>65.599999999999994</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="P92" s="3">
-        <v>66.400000000000006</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A93" s="33"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A93" s="28"/>
       <c r="B93" s="5" t="s">
         <v>9</v>
       </c>
@@ -7533,26 +7615,26 @@
         <v>74.33</v>
       </c>
       <c r="K93" s="3">
-        <v>21.1</v>
+        <v>27.3</v>
       </c>
       <c r="L93" s="3">
-        <v>39.1</v>
+        <v>43.8</v>
       </c>
       <c r="M93" s="3">
-        <v>51.6</v>
+        <v>54.7</v>
       </c>
       <c r="N93" s="3">
-        <v>55.5</v>
+        <v>58.6</v>
       </c>
       <c r="O93" s="3">
-        <v>57.8</v>
+        <v>62.5</v>
       </c>
       <c r="P93" s="3">
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A94" s="33"/>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A94" s="28"/>
       <c r="B94" s="4" t="s">
         <v>4</v>
       </c>
@@ -7567,26 +7649,26 @@
         <v>74.739999999999995</v>
       </c>
       <c r="K94" s="3">
-        <v>18</v>
+        <v>15.6</v>
       </c>
       <c r="L94" s="3">
-        <v>26.6</v>
+        <v>25</v>
       </c>
       <c r="M94" s="3">
-        <v>34.4</v>
+        <v>30.5</v>
       </c>
       <c r="N94" s="3">
-        <v>40.6</v>
+        <v>35.9</v>
       </c>
       <c r="O94" s="3">
-        <v>43.8</v>
+        <v>39.1</v>
       </c>
       <c r="P94" s="3">
-        <v>58.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A95" s="33"/>
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A95" s="28"/>
       <c r="B95" s="4" t="s">
         <v>3</v>
       </c>
@@ -7601,48 +7683,676 @@
         <v>73.66</v>
       </c>
       <c r="K95" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="L95" s="3">
+        <v>32</v>
+      </c>
+      <c r="M95" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="N95" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="O95" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="P95" s="3">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A96" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="34"/>
+      <c r="N96" s="34"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A97" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="27"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A98" s="28"/>
+      <c r="B98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="2">
+        <v>100</v>
+      </c>
+      <c r="E98" s="2">
+        <v>200</v>
+      </c>
+      <c r="F98" s="2">
+        <v>300</v>
+      </c>
+      <c r="G98" s="2">
+        <v>400</v>
+      </c>
+      <c r="H98" s="2">
+        <v>500</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" s="3">
+        <v>100</v>
+      </c>
+      <c r="L98" s="3">
+        <v>200</v>
+      </c>
+      <c r="M98" s="3">
+        <v>300</v>
+      </c>
+      <c r="N98" s="3">
+        <v>400</v>
+      </c>
+      <c r="O98" s="3">
+        <v>500</v>
+      </c>
+      <c r="P98" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A99" s="28"/>
+      <c r="B99" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E99" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="F99" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="G99" s="2">
+        <v>43.8</v>
+      </c>
+      <c r="H99" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="I99" s="2">
+        <v>46.9</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L99" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="M99" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="N99" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="O99" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="P99" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A100" s="28"/>
+      <c r="B100" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="E100" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="F100" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="G100" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="H100" s="2">
+        <v>45.3</v>
+      </c>
+      <c r="I100" s="2">
+        <v>46.9</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L100" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="M100" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="N100" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="O100" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P100" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A101" s="28"/>
+      <c r="B101" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="E101" s="2">
+        <v>32</v>
+      </c>
+      <c r="F101" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="G101" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="H101" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="I101" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M101" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="N101" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="O101" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P101" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A102" s="28"/>
+      <c r="B102" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E102" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="F102" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="G102" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="H102" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I102" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L102" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="M102" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="N102" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="O102" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="P102" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="R102" s="15"/>
+      <c r="S102" s="15"/>
+      <c r="T102" s="15"/>
+      <c r="U102" s="15"/>
+      <c r="V102" s="15"/>
+      <c r="W102" s="15"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A103" s="28"/>
+      <c r="B103" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2">
+        <v>18</v>
+      </c>
+      <c r="E103" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="F103" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="G103" s="2">
         <v>23.4</v>
       </c>
-      <c r="L95" s="3">
+      <c r="H103" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="I103" s="2">
         <v>26.6</v>
       </c>
-      <c r="M95" s="3">
-        <v>30.5</v>
-      </c>
-      <c r="N95" s="3">
-        <v>31.2</v>
-      </c>
-      <c r="O95" s="3">
+      <c r="J103" s="3"/>
+      <c r="K103" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L103" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M103" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N103" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O103" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P103" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="R103" s="15"/>
+      <c r="S103" s="15"/>
+      <c r="T103" s="15"/>
+      <c r="U103" s="15"/>
+      <c r="V103" s="15"/>
+      <c r="W103" s="15"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A104" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
+      <c r="R104" s="15"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="15"/>
+      <c r="U104" s="15"/>
+      <c r="V104" s="15"/>
+      <c r="W104" s="15"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A105" s="28"/>
+      <c r="B105" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="2">
+        <v>100</v>
+      </c>
+      <c r="E105" s="2">
+        <v>200</v>
+      </c>
+      <c r="F105" s="2">
+        <v>300</v>
+      </c>
+      <c r="G105" s="2">
+        <v>400</v>
+      </c>
+      <c r="H105" s="2">
+        <v>500</v>
+      </c>
+      <c r="I105" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K105" s="3">
+        <v>100</v>
+      </c>
+      <c r="L105" s="3">
+        <v>200</v>
+      </c>
+      <c r="M105" s="3">
+        <v>300</v>
+      </c>
+      <c r="N105" s="3">
+        <v>400</v>
+      </c>
+      <c r="O105" s="3">
+        <v>500</v>
+      </c>
+      <c r="P105" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R105" s="15"/>
+      <c r="S105" s="15"/>
+      <c r="T105" s="15"/>
+      <c r="U105" s="15"/>
+      <c r="V105" s="15"/>
+      <c r="W105" s="15"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A106" s="28"/>
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2">
+        <v>70.3</v>
+      </c>
+      <c r="E106" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="F106" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="G106" s="2">
+        <v>85.9</v>
+      </c>
+      <c r="H106" s="2">
+        <v>86.7</v>
+      </c>
+      <c r="I106" s="2">
+        <v>100</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L106" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M106" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="N106" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="O106" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="P106" s="3">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="R106" s="15"/>
+      <c r="S106" s="15"/>
+      <c r="T106" s="15"/>
+      <c r="U106" s="15"/>
+      <c r="V106" s="15"/>
+      <c r="W106" s="15"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A107" s="28"/>
+      <c r="B107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2">
+        <v>68.8</v>
+      </c>
+      <c r="E107" s="2">
+        <v>75.8</v>
+      </c>
+      <c r="F107" s="2">
+        <v>75.8</v>
+      </c>
+      <c r="G107" s="2">
+        <v>82</v>
+      </c>
+      <c r="H107" s="2">
+        <v>83.6</v>
+      </c>
+      <c r="I107" s="2">
+        <v>100</v>
+      </c>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="L107" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="M107" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="N107" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="O107" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="P107" s="3">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A108" s="28"/>
+      <c r="B108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2">
+        <v>68</v>
+      </c>
+      <c r="E108" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="F108" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="G108" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="H108" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="I108" s="2">
+        <v>100</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="L108" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="M108" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="N108" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="O108" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="P108" s="3">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A109" s="28"/>
+      <c r="B109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2">
+        <v>79.7</v>
+      </c>
+      <c r="E109" s="2">
+        <v>88.3</v>
+      </c>
+      <c r="F109" s="2">
+        <v>92.2</v>
+      </c>
+      <c r="G109" s="2">
+        <v>94.5</v>
+      </c>
+      <c r="H109" s="2">
+        <v>100</v>
+      </c>
+      <c r="I109" s="2">
+        <v>100</v>
+      </c>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="L109" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="M109" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="N109" s="3">
+        <v>29.7</v>
+      </c>
+      <c r="O109" s="3">
         <v>32</v>
       </c>
-      <c r="P95" s="3">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
+      <c r="P109" s="3">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A110" s="28"/>
+      <c r="B110" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2">
+        <v>93</v>
+      </c>
+      <c r="E110" s="2">
+        <v>94.5</v>
+      </c>
+      <c r="F110" s="2">
+        <v>100</v>
+      </c>
+      <c r="G110" s="2">
+        <v>100</v>
+      </c>
+      <c r="H110" s="2">
+        <v>100</v>
+      </c>
+      <c r="I110" s="2">
+        <v>100</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="L110" s="3">
+        <v>32</v>
+      </c>
+      <c r="M110" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="N110" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="O110" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="P110" s="3">
+        <v>46.9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="C82:I82"/>
-    <mergeCell ref="J82:P82"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="J89:P89"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="J67:P67"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="C74:I74"/>
-    <mergeCell ref="J74:P74"/>
+  <mergeCells count="49">
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="J59:P59"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J37:P37"/>
     <mergeCell ref="C44:I44"/>
     <mergeCell ref="J44:P44"/>
     <mergeCell ref="A44:A50"/>
@@ -7659,18 +8369,27 @@
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="J29:P29"/>
     <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="C59:I59"/>
-    <mergeCell ref="J59:P59"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="J67:P67"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="C74:I74"/>
+    <mergeCell ref="J74:P74"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="J82:P82"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="J89:P89"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="J97:P97"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="C104:I104"/>
+    <mergeCell ref="J104:P104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7680,10 +8399,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A322606-CFC1-4A0E-AC0F-00BFAFEAFD77}">
-  <dimension ref="A1:AD95"/>
+  <dimension ref="A1:AD114"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7693,57 +8412,57 @@
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:30" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="26">
         <v>0</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="34" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="35"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A3" s="37"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -7765,7 +8484,7 @@
       <c r="H3" s="3">
         <v>1000</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="4" t="s">
         <v>0</v>
       </c>
@@ -7788,8 +8507,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A4" s="37"/>
       <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
@@ -7811,7 +8530,7 @@
       <c r="H4" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4" s="35"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
@@ -7846,14 +8565,32 @@
         <v>0.8</v>
       </c>
       <c r="V4" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="W4" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W4" s="15">
+      <c r="Y4" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA4" s="15">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="35"/>
+      <c r="AB4" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
@@ -7875,7 +8612,7 @@
       <c r="H5" s="3">
         <v>18.8</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="11" t="s">
         <v>25</v>
       </c>
@@ -7898,26 +8635,44 @@
         <v>31.2</v>
       </c>
       <c r="R5" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="S5" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="T5" s="15">
+        <v>9.4</v>
+      </c>
+      <c r="U5" s="15">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="V5" s="15">
+        <v>23.4</v>
+      </c>
+      <c r="W5" s="15">
+        <v>50.8</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="Z5" s="15">
         <v>3.9</v>
       </c>
-      <c r="S5" s="15">
-        <v>6.2</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="U5" s="15">
-        <v>18</v>
-      </c>
-      <c r="V5" s="15">
-        <v>21.9</v>
-      </c>
-      <c r="W5" s="15">
-        <v>56.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="35"/>
+      <c r="AA5" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>13.3</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
@@ -7939,7 +8694,7 @@
       <c r="H6" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="11" t="s">
         <v>26</v>
       </c>
@@ -7962,26 +8717,44 @@
         <v>84.4</v>
       </c>
       <c r="R6" s="15">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="S6" s="15">
+        <v>17.2</v>
+      </c>
+      <c r="T6" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="U6" s="15">
+        <v>55.5</v>
+      </c>
+      <c r="V6" s="15">
+        <v>75.8</v>
+      </c>
+      <c r="W6" s="15">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="Z6" s="15">
         <v>19.5</v>
       </c>
-      <c r="T6" s="15">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="U6" s="15">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="V6" s="15">
-        <v>83.6</v>
-      </c>
-      <c r="W6" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A7" s="35"/>
+      <c r="AA6" s="15">
+        <v>34.4</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>47.7</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>58.6</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A7" s="37"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -8003,7 +8776,7 @@
       <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="11" t="s">
         <v>27</v>
       </c>
@@ -8026,10 +8799,10 @@
         <v>100</v>
       </c>
       <c r="R7" s="15">
-        <v>24.2</v>
+        <v>27.3</v>
       </c>
       <c r="S7" s="15">
-        <v>92.2</v>
+        <v>88.3</v>
       </c>
       <c r="T7" s="15">
         <v>97.7</v>
@@ -8043,9 +8816,27 @@
       <c r="W7" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="35"/>
+      <c r="Y7" s="15">
+        <v>21.9</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>94.5</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>96.1</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A8" s="37"/>
       <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
@@ -8067,7 +8858,7 @@
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="35"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="11" t="s">
         <v>28</v>
       </c>
@@ -8090,10 +8881,10 @@
         <v>100</v>
       </c>
       <c r="R8" s="15">
-        <v>61.7</v>
+        <v>58.6</v>
       </c>
       <c r="S8" s="15">
-        <v>97.7</v>
+        <v>100</v>
       </c>
       <c r="T8" s="15">
         <v>100</v>
@@ -8107,9 +8898,27 @@
       <c r="W8" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A9" s="35"/>
+      <c r="Y8" s="15">
+        <v>53.1</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>96.1</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>96.9</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A9" s="37"/>
       <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
@@ -8131,7 +8940,7 @@
       <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="35"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="11" t="s">
         <v>29</v>
       </c>
@@ -8154,10 +8963,10 @@
         <v>100</v>
       </c>
       <c r="R9" s="15">
-        <v>97.7</v>
+        <v>98.4</v>
       </c>
       <c r="S9" s="15">
-        <v>98.4</v>
+        <v>100</v>
       </c>
       <c r="T9" s="15">
         <v>100</v>
@@ -8171,9 +8980,27 @@
       <c r="W9" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A10" s="36"/>
+      <c r="Y9" s="15">
+        <v>92.2</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>96.9</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A10" s="38"/>
       <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
@@ -8195,7 +9022,7 @@
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="36"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="11" t="s">
         <v>30</v>
       </c>
@@ -8218,7 +9045,7 @@
         <v>100</v>
       </c>
       <c r="R10" s="15">
-        <v>98.4</v>
+        <v>99.2</v>
       </c>
       <c r="S10" s="15">
         <v>100</v>
@@ -8235,35 +9062,53 @@
       <c r="W10" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" s="33" t="s">
+      <c r="Y10" s="15">
+        <v>96.9</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>96.9</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="28" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A12" s="33"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A12" s="28"/>
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
@@ -8285,7 +9130,7 @@
       <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="4" t="s">
         <v>0</v>
       </c>
@@ -8308,8 +9153,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="33"/>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A13" s="28"/>
       <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
@@ -8331,7 +9176,7 @@
       <c r="H13" s="3">
         <v>21.1</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="11" t="s">
         <v>24</v>
       </c>
@@ -8354,26 +9199,44 @@
         <v>20.3</v>
       </c>
       <c r="R13">
-        <v>5.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="S13">
-        <v>6.2</v>
+        <v>10.9</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>14.8</v>
       </c>
       <c r="U13">
-        <v>8.6</v>
+        <v>17.2</v>
       </c>
       <c r="V13">
-        <v>9.4</v>
+        <v>18</v>
       </c>
       <c r="W13">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
+        <v>20.3</v>
+      </c>
+      <c r="Y13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z13">
+        <v>10.9</v>
+      </c>
+      <c r="AA13">
+        <v>11.7</v>
+      </c>
+      <c r="AB13">
+        <v>12.5</v>
+      </c>
+      <c r="AC13">
+        <v>12.5</v>
+      </c>
+      <c r="AD13">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A14" s="28"/>
       <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
@@ -8395,7 +9258,7 @@
       <c r="H14" s="3">
         <v>42.2</v>
       </c>
-      <c r="I14" s="33"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="11" t="s">
         <v>25</v>
       </c>
@@ -8418,26 +9281,44 @@
         <v>43</v>
       </c>
       <c r="R14">
-        <v>15.6</v>
+        <v>19.5</v>
       </c>
       <c r="S14">
-        <v>20.3</v>
+        <v>29.7</v>
       </c>
       <c r="T14">
-        <v>28.1</v>
+        <v>34.4</v>
       </c>
       <c r="U14">
-        <v>34.4</v>
+        <v>39.1</v>
       </c>
       <c r="V14">
-        <v>39.799999999999997</v>
+        <v>40.6</v>
       </c>
       <c r="W14">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A15" s="33"/>
+        <v>53.9</v>
+      </c>
+      <c r="Y14">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Z14">
+        <v>22.7</v>
+      </c>
+      <c r="AA14">
+        <v>30.5</v>
+      </c>
+      <c r="AB14">
+        <v>33.6</v>
+      </c>
+      <c r="AC14">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AD14">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A15" s="28"/>
       <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
@@ -8459,7 +9340,7 @@
       <c r="H15" s="3">
         <v>54.6</v>
       </c>
-      <c r="I15" s="33"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="11" t="s">
         <v>26</v>
       </c>
@@ -8482,26 +9363,44 @@
         <v>62.5</v>
       </c>
       <c r="R15">
-        <v>26.6</v>
+        <v>34.4</v>
       </c>
       <c r="S15">
-        <v>40.6</v>
+        <v>49.2</v>
       </c>
       <c r="T15">
-        <v>55.5</v>
+        <v>53.9</v>
       </c>
       <c r="U15">
-        <v>60.2</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="V15">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="W15">
+        <v>70.3</v>
+      </c>
+      <c r="Y15">
+        <v>27.3</v>
+      </c>
+      <c r="Z15">
+        <v>43.8</v>
+      </c>
+      <c r="AA15">
+        <v>54.7</v>
+      </c>
+      <c r="AB15">
+        <v>58.6</v>
+      </c>
+      <c r="AC15">
         <v>62.5</v>
       </c>
-      <c r="W15">
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
+      <c r="AD15">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A16" s="28"/>
       <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
@@ -8523,7 +9422,7 @@
       <c r="H16" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="I16" s="33"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="11" t="s">
         <v>27</v>
       </c>
@@ -8546,26 +9445,44 @@
         <v>72.7</v>
       </c>
       <c r="R16">
-        <v>54.7</v>
+        <v>58.6</v>
       </c>
       <c r="S16">
+        <v>69.5</v>
+      </c>
+      <c r="T16">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="U16">
+        <v>72.7</v>
+      </c>
+      <c r="V16">
+        <v>72.7</v>
+      </c>
+      <c r="W16">
+        <v>74.2</v>
+      </c>
+      <c r="Y16">
+        <v>53.9</v>
+      </c>
+      <c r="Z16">
         <v>66.400000000000006</v>
       </c>
-      <c r="T16">
-        <v>67.2</v>
-      </c>
-      <c r="U16">
+      <c r="AA16">
+        <v>68</v>
+      </c>
+      <c r="AB16">
         <v>68.8</v>
       </c>
-      <c r="V16">
-        <v>68.8</v>
-      </c>
-      <c r="W16">
+      <c r="AC16">
+        <v>70.3</v>
+      </c>
+      <c r="AD16">
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A17" s="28"/>
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
@@ -8587,7 +9504,7 @@
       <c r="H17" s="3">
         <v>70.3</v>
       </c>
-      <c r="I17" s="33"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="11" t="s">
         <v>28</v>
       </c>
@@ -8610,26 +9527,44 @@
         <v>75</v>
       </c>
       <c r="R17">
+        <v>69.5</v>
+      </c>
+      <c r="S17">
+        <v>72.7</v>
+      </c>
+      <c r="T17">
+        <v>75</v>
+      </c>
+      <c r="U17">
+        <v>75</v>
+      </c>
+      <c r="V17">
+        <v>75</v>
+      </c>
+      <c r="W17">
+        <v>75.8</v>
+      </c>
+      <c r="Y17">
         <v>65.599999999999994</v>
       </c>
-      <c r="S17">
-        <v>68.8</v>
-      </c>
-      <c r="T17">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="U17">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="V17">
+      <c r="Z17">
+        <v>70.3</v>
+      </c>
+      <c r="AA17">
+        <v>72.7</v>
+      </c>
+      <c r="AB17">
         <v>73.400000000000006</v>
       </c>
-      <c r="W17">
-        <v>74.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
+      <c r="AC17">
+        <v>75</v>
+      </c>
+      <c r="AD17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A18" s="28"/>
       <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
@@ -8651,7 +9586,7 @@
       <c r="H18" s="3">
         <v>75</v>
       </c>
-      <c r="I18" s="33"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="11" t="s">
         <v>29</v>
       </c>
@@ -8674,26 +9609,44 @@
         <v>78.900000000000006</v>
       </c>
       <c r="R18">
-        <v>71.900000000000006</v>
+        <v>75</v>
       </c>
       <c r="S18">
-        <v>75</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="T18">
-        <v>75.8</v>
+        <v>77.3</v>
       </c>
       <c r="U18">
-        <v>77.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="V18">
         <v>78.099999999999994</v>
       </c>
       <c r="W18">
+        <v>79.7</v>
+      </c>
+      <c r="Y18">
+        <v>72.7</v>
+      </c>
+      <c r="Z18">
+        <v>75</v>
+      </c>
+      <c r="AA18">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AB18">
+        <v>77.3</v>
+      </c>
+      <c r="AC18">
+        <v>77.3</v>
+      </c>
+      <c r="AD18">
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A19" s="28"/>
       <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
@@ -8715,7 +9668,7 @@
       <c r="H19" s="3">
         <v>80.5</v>
       </c>
-      <c r="I19" s="33"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="11" t="s">
         <v>30</v>
       </c>
@@ -8744,70 +9697,88 @@
         <v>77.3</v>
       </c>
       <c r="T19">
-        <v>78.900000000000006</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="U19">
-        <v>78.900000000000006</v>
+        <v>79.7</v>
       </c>
       <c r="V19">
         <v>79.7</v>
       </c>
       <c r="W19">
-        <v>81.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="30" t="s">
+        <v>83.6</v>
+      </c>
+      <c r="Y19">
+        <v>74.2</v>
+      </c>
+      <c r="Z19">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AA19">
+        <v>77.3</v>
+      </c>
+      <c r="AB19">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AC19">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AD19">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A21" s="34" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A21" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="26">
         <v>0</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="34" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="36" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" s="35"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A22" s="37"/>
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
@@ -8829,7 +9800,7 @@
       <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="4" t="s">
         <v>0</v>
       </c>
@@ -8852,8 +9823,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A23" s="37"/>
       <c r="B23" s="11" t="s">
         <v>24</v>
       </c>
@@ -8875,7 +9846,7 @@
       <c r="H23" s="3">
         <v>46.9</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="11" t="s">
         <v>24</v>
       </c>
@@ -8898,8 +9869,8 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A24" s="37"/>
       <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
@@ -8921,7 +9892,7 @@
       <c r="H24" s="3">
         <v>90.6</v>
       </c>
-      <c r="I24" s="35"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="11" t="s">
         <v>25</v>
       </c>
@@ -8944,8 +9915,8 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A25" s="37"/>
       <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
@@ -8967,7 +9938,7 @@
       <c r="H25" s="3">
         <v>100</v>
       </c>
-      <c r="I25" s="35"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="11" t="s">
         <v>26</v>
       </c>
@@ -8990,8 +9961,8 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A26" s="37"/>
       <c r="B26" s="11" t="s">
         <v>27</v>
       </c>
@@ -9013,7 +9984,7 @@
       <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="35"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="11" t="s">
         <v>27</v>
       </c>
@@ -9036,8 +10007,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A27" s="37"/>
       <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
@@ -9059,7 +10030,7 @@
       <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="35"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="11" t="s">
         <v>28</v>
       </c>
@@ -9082,8 +10053,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A28" s="37"/>
       <c r="B28" s="11" t="s">
         <v>29</v>
       </c>
@@ -9105,7 +10076,7 @@
       <c r="H28" s="3">
         <v>100</v>
       </c>
-      <c r="I28" s="35"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="11" t="s">
         <v>29</v>
       </c>
@@ -9128,8 +10099,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A29" s="36"/>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A29" s="38"/>
       <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
@@ -9151,7 +10122,7 @@
       <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="I29" s="36"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="11" t="s">
         <v>30</v>
       </c>
@@ -9180,31 +10151,31 @@
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A30" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="28" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
@@ -9213,8 +10184,8 @@
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A31" s="28"/>
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
@@ -9236,7 +10207,7 @@
       <c r="H31" s="3">
         <v>1000</v>
       </c>
-      <c r="I31" s="33"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="4" t="s">
         <v>0</v>
       </c>
@@ -9266,8 +10237,8 @@
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A32" s="28"/>
       <c r="B32" s="11" t="s">
         <v>24</v>
       </c>
@@ -9289,7 +10260,7 @@
       <c r="H32" s="3">
         <v>85.2</v>
       </c>
-      <c r="I32" s="33"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="11" t="s">
         <v>24</v>
       </c>
@@ -9320,7 +10291,7 @@
       <c r="Y32" s="15"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A33" s="33"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="11" t="s">
         <v>25</v>
       </c>
@@ -9342,7 +10313,7 @@
       <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="33"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="11" t="s">
         <v>25</v>
       </c>
@@ -9373,7 +10344,7 @@
       <c r="Y33" s="15"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A34" s="33"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="11" t="s">
         <v>26</v>
       </c>
@@ -9395,7 +10366,7 @@
       <c r="H34" s="3">
         <v>100</v>
       </c>
-      <c r="I34" s="33"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="11" t="s">
         <v>26</v>
       </c>
@@ -9426,7 +10397,7 @@
       <c r="Y34" s="15"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A35" s="33"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="11" t="s">
         <v>27</v>
       </c>
@@ -9448,7 +10419,7 @@
       <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="33"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="11" t="s">
         <v>27</v>
       </c>
@@ -9479,7 +10450,7 @@
       <c r="Y35" s="15"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A36" s="33"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="11" t="s">
         <v>28</v>
       </c>
@@ -9501,7 +10472,7 @@
       <c r="H36" s="3">
         <v>100</v>
       </c>
-      <c r="I36" s="33"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="11" t="s">
         <v>28</v>
       </c>
@@ -9531,7 +10502,7 @@
       <c r="X36" s="15"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A37" s="33"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="11" t="s">
         <v>29</v>
       </c>
@@ -9553,7 +10524,7 @@
       <c r="H37" s="3">
         <v>100</v>
       </c>
-      <c r="I37" s="33"/>
+      <c r="I37" s="28"/>
       <c r="J37" s="11" t="s">
         <v>29</v>
       </c>
@@ -9577,7 +10548,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A38" s="33"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="11" t="s">
         <v>30</v>
       </c>
@@ -9599,7 +10570,7 @@
       <c r="H38" s="3">
         <v>100</v>
       </c>
-      <c r="I38" s="33"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="11" t="s">
         <v>30</v>
       </c>
@@ -9623,57 +10594,57 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="26">
         <v>0</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="34" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="36" t="s">
         <v>5</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="29"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="27"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A41" s="35"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="4" t="s">
         <v>0</v>
       </c>
@@ -9695,7 +10666,7 @@
       <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="35"/>
+      <c r="I41" s="37"/>
       <c r="J41" s="4" t="s">
         <v>0</v>
       </c>
@@ -9719,7 +10690,7 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A42" s="35"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="11" t="s">
         <v>24</v>
       </c>
@@ -9741,7 +10712,7 @@
       <c r="H42" s="3">
         <v>46.9</v>
       </c>
-      <c r="I42" s="35"/>
+      <c r="I42" s="37"/>
       <c r="J42" s="11" t="s">
         <v>24</v>
       </c>
@@ -9765,7 +10736,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A43" s="35"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="11" t="s">
         <v>25</v>
       </c>
@@ -9787,7 +10758,7 @@
       <c r="H43" s="3">
         <v>90.6</v>
       </c>
-      <c r="I43" s="35"/>
+      <c r="I43" s="37"/>
       <c r="J43" s="11" t="s">
         <v>25</v>
       </c>
@@ -9811,7 +10782,7 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A44" s="35"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="11" t="s">
         <v>26</v>
       </c>
@@ -9833,7 +10804,7 @@
       <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="35"/>
+      <c r="I44" s="37"/>
       <c r="J44" s="11" t="s">
         <v>26</v>
       </c>
@@ -9857,7 +10828,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A45" s="35"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="11" t="s">
         <v>27</v>
       </c>
@@ -9879,7 +10850,7 @@
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="35"/>
+      <c r="I45" s="37"/>
       <c r="J45" s="11" t="s">
         <v>27</v>
       </c>
@@ -9903,7 +10874,7 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A46" s="35"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="11" t="s">
         <v>28</v>
       </c>
@@ -9925,7 +10896,7 @@
       <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="35"/>
+      <c r="I46" s="37"/>
       <c r="J46" s="11" t="s">
         <v>28</v>
       </c>
@@ -9949,7 +10920,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A47" s="35"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="11" t="s">
         <v>29</v>
       </c>
@@ -9971,7 +10942,7 @@
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="35"/>
+      <c r="I47" s="37"/>
       <c r="J47" s="11" t="s">
         <v>29</v>
       </c>
@@ -9995,7 +10966,7 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A48" s="36"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="11" t="s">
         <v>30</v>
       </c>
@@ -10017,7 +10988,7 @@
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="36"/>
+      <c r="I48" s="38"/>
       <c r="J48" s="11" t="s">
         <v>30</v>
       </c>
@@ -10041,33 +11012,33 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="28" t="s">
         <v>6</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A50" s="33"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="4" t="s">
         <v>0</v>
       </c>
@@ -10089,7 +11060,7 @@
       <c r="H50" s="3">
         <v>1000</v>
       </c>
-      <c r="I50" s="33"/>
+      <c r="I50" s="28"/>
       <c r="J50" s="4" t="s">
         <v>0</v>
       </c>
@@ -10119,7 +11090,7 @@
       <c r="AD50" s="15"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A51" s="33"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="11" t="s">
         <v>24</v>
       </c>
@@ -10141,7 +11112,7 @@
       <c r="H51" s="3">
         <v>85.2</v>
       </c>
-      <c r="I51" s="33"/>
+      <c r="I51" s="28"/>
       <c r="J51" s="11" t="s">
         <v>24</v>
       </c>
@@ -10171,7 +11142,7 @@
       <c r="AD51" s="15"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A52" s="33"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="11" t="s">
         <v>25</v>
       </c>
@@ -10193,7 +11164,7 @@
       <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="33"/>
+      <c r="I52" s="28"/>
       <c r="J52" s="11" t="s">
         <v>25</v>
       </c>
@@ -10223,7 +11194,7 @@
       <c r="AD52" s="15"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A53" s="33"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="11" t="s">
         <v>26</v>
       </c>
@@ -10245,7 +11216,7 @@
       <c r="H53" s="3">
         <v>100</v>
       </c>
-      <c r="I53" s="33"/>
+      <c r="I53" s="28"/>
       <c r="J53" s="11" t="s">
         <v>26</v>
       </c>
@@ -10275,7 +11246,7 @@
       <c r="AD53" s="15"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A54" s="33"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="11" t="s">
         <v>27</v>
       </c>
@@ -10297,7 +11268,7 @@
       <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="33"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="11" t="s">
         <v>27</v>
       </c>
@@ -10327,7 +11298,7 @@
       <c r="AD54" s="15"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A55" s="33"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="11" t="s">
         <v>28</v>
       </c>
@@ -10349,7 +11320,7 @@
       <c r="H55" s="3">
         <v>100</v>
       </c>
-      <c r="I55" s="33"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="11" t="s">
         <v>28</v>
       </c>
@@ -10379,7 +11350,7 @@
       <c r="AD55" s="15"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A56" s="33"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="11" t="s">
         <v>29</v>
       </c>
@@ -10401,7 +11372,7 @@
       <c r="H56" s="3">
         <v>100</v>
       </c>
-      <c r="I56" s="33"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="11" t="s">
         <v>29</v>
       </c>
@@ -10431,7 +11402,7 @@
       <c r="AD56" s="15"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A57" s="33"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="11" t="s">
         <v>30</v>
       </c>
@@ -10453,7 +11424,7 @@
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="33"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="11" t="s">
         <v>30</v>
       </c>
@@ -10477,57 +11448,57 @@
       </c>
     </row>
     <row r="58" spans="1:30" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="26">
         <v>0</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="34" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="36" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K59" s="28">
+      <c r="K59" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="29"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A60" s="35"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="4" t="s">
         <v>0</v>
       </c>
@@ -10549,7 +11520,7 @@
       <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="35"/>
+      <c r="I60" s="37"/>
       <c r="J60" s="4" t="s">
         <v>0</v>
       </c>
@@ -10573,7 +11544,7 @@
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A61" s="35"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="11" t="s">
         <v>24</v>
       </c>
@@ -10595,7 +11566,7 @@
       <c r="H61" s="3">
         <v>3.1</v>
       </c>
-      <c r="I61" s="35"/>
+      <c r="I61" s="37"/>
       <c r="J61" s="11" t="s">
         <v>24</v>
       </c>
@@ -10617,9 +11588,45 @@
       <c r="P61" s="3">
         <v>2.2999999999999998</v>
       </c>
+      <c r="R61" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="S61" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="T61" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="U61" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V61" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W61" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y61" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z61" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="AA61" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="AB61" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="AC61" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="AD61" s="15">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A62" s="35"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="11" t="s">
         <v>25</v>
       </c>
@@ -10641,7 +11648,7 @@
       <c r="H62" s="3">
         <v>6.2</v>
       </c>
-      <c r="I62" s="35"/>
+      <c r="I62" s="37"/>
       <c r="J62" s="11" t="s">
         <v>25</v>
       </c>
@@ -10663,9 +11670,45 @@
       <c r="P62" s="3">
         <v>3.1</v>
       </c>
+      <c r="R62" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="S62" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T62" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U62" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V62" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="W62" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="Y62" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="Z62" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="AA62" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="AB62" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="AC62" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="AD62" s="15">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A63" s="35"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="11" t="s">
         <v>26</v>
       </c>
@@ -10687,7 +11730,7 @@
       <c r="H63" s="3">
         <v>7</v>
       </c>
-      <c r="I63" s="35"/>
+      <c r="I63" s="37"/>
       <c r="J63" s="11" t="s">
         <v>26</v>
       </c>
@@ -10709,9 +11752,45 @@
       <c r="P63" s="3">
         <v>4.7</v>
       </c>
+      <c r="R63" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S63" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="T63" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="U63" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="V63" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="W63" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="Y63" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="Z63" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="AA63" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="AB63" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="AC63" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="AD63" s="15">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A64" s="35"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="11" t="s">
         <v>27</v>
       </c>
@@ -10733,7 +11812,7 @@
       <c r="H64" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="I64" s="35"/>
+      <c r="I64" s="37"/>
       <c r="J64" s="11" t="s">
         <v>27</v>
       </c>
@@ -10755,9 +11834,45 @@
       <c r="P64" s="3">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A65" s="35"/>
+      <c r="R64" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="S64" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="T64" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="U64" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="V64" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="W64" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="Y64" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="Z64" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="AA64" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="AB64" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="AC64" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="AD64" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A65" s="37"/>
       <c r="B65" s="11" t="s">
         <v>28</v>
       </c>
@@ -10779,7 +11894,7 @@
       <c r="H65" s="3">
         <v>11.7</v>
       </c>
-      <c r="I65" s="35"/>
+      <c r="I65" s="37"/>
       <c r="J65" s="11" t="s">
         <v>28</v>
       </c>
@@ -10801,9 +11916,45 @@
       <c r="P65" s="3">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A66" s="35"/>
+      <c r="R65" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="S65" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="T65" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="U65" s="15">
+        <v>7</v>
+      </c>
+      <c r="V65" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="W65" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="Y65" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="Z65" s="15">
+        <v>7</v>
+      </c>
+      <c r="AA65" s="15">
+        <v>7</v>
+      </c>
+      <c r="AB65" s="15">
+        <v>7</v>
+      </c>
+      <c r="AC65" s="15">
+        <v>7</v>
+      </c>
+      <c r="AD65" s="15">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A66" s="37"/>
       <c r="B66" s="11" t="s">
         <v>29</v>
       </c>
@@ -10825,7 +11976,7 @@
       <c r="H66" s="3">
         <v>14.1</v>
       </c>
-      <c r="I66" s="35"/>
+      <c r="I66" s="37"/>
       <c r="J66" s="11" t="s">
         <v>29</v>
       </c>
@@ -10847,9 +11998,45 @@
       <c r="P66" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A67" s="36"/>
+      <c r="R66" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="S66" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="T66" s="15">
+        <v>9.4</v>
+      </c>
+      <c r="U66" s="15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="V66" s="15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W66" s="15">
+        <v>10.9</v>
+      </c>
+      <c r="Y66" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="Z66" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="AA66" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="AB66" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="AC66" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="AD66" s="15">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A67" s="38"/>
       <c r="B67" s="11" t="s">
         <v>30</v>
       </c>
@@ -10871,7 +12058,7 @@
       <c r="H67" s="3">
         <v>18.8</v>
       </c>
-      <c r="I67" s="36"/>
+      <c r="I67" s="38"/>
       <c r="J67" s="11" t="s">
         <v>30</v>
       </c>
@@ -10893,35 +12080,71 @@
       <c r="P67" s="3">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="33" t="s">
+      <c r="R67" s="15">
+        <v>7</v>
+      </c>
+      <c r="S67" s="15">
+        <v>7</v>
+      </c>
+      <c r="T67" s="15">
+        <v>7</v>
+      </c>
+      <c r="U67" s="15">
+        <v>7</v>
+      </c>
+      <c r="V67" s="15">
+        <v>7</v>
+      </c>
+      <c r="W67" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="Y67" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="Z67" s="15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AA67" s="15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AB67" s="15">
+        <v>10.9</v>
+      </c>
+      <c r="AC67" s="15">
+        <v>10.9</v>
+      </c>
+      <c r="AD67" s="15">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A68" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="33" t="s">
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="28" t="s">
         <v>6</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A69" s="33"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A69" s="28"/>
       <c r="B69" s="4" t="s">
         <v>0</v>
       </c>
@@ -10943,7 +12166,7 @@
       <c r="H69" s="3">
         <v>1000</v>
       </c>
-      <c r="I69" s="33"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="4" t="s">
         <v>0</v>
       </c>
@@ -10966,8 +12189,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A70" s="33"/>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A70" s="28"/>
       <c r="B70" s="11" t="s">
         <v>24</v>
       </c>
@@ -10989,7 +12212,7 @@
       <c r="H70" s="3">
         <v>21.1</v>
       </c>
-      <c r="I70" s="33"/>
+      <c r="I70" s="28"/>
       <c r="J70" s="11" t="s">
         <v>24</v>
       </c>
@@ -11011,9 +12234,45 @@
       <c r="P70" s="3">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A71" s="33"/>
+      <c r="R70">
+        <v>13.3</v>
+      </c>
+      <c r="S70">
+        <v>18</v>
+      </c>
+      <c r="T70">
+        <v>19.5</v>
+      </c>
+      <c r="U70">
+        <v>19.5</v>
+      </c>
+      <c r="V70">
+        <v>19.5</v>
+      </c>
+      <c r="W70">
+        <v>20.3</v>
+      </c>
+      <c r="Y70" s="15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z70" s="15">
+        <v>11.7</v>
+      </c>
+      <c r="AA70" s="15">
+        <v>14.1</v>
+      </c>
+      <c r="AB70" s="15">
+        <v>15.6</v>
+      </c>
+      <c r="AC70" s="15">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AD70" s="15">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A71" s="28"/>
       <c r="B71" s="11" t="s">
         <v>25</v>
       </c>
@@ -11035,7 +12294,7 @@
       <c r="H71" s="3">
         <v>28.9</v>
       </c>
-      <c r="I71" s="33"/>
+      <c r="I71" s="28"/>
       <c r="J71" s="11" t="s">
         <v>25</v>
       </c>
@@ -11057,9 +12316,45 @@
       <c r="P71" s="3">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A72" s="33"/>
+      <c r="R71">
+        <v>17.2</v>
+      </c>
+      <c r="S71">
+        <v>19.5</v>
+      </c>
+      <c r="T71">
+        <v>21.9</v>
+      </c>
+      <c r="U71">
+        <v>27.3</v>
+      </c>
+      <c r="V71">
+        <v>28.1</v>
+      </c>
+      <c r="W71">
+        <v>29.7</v>
+      </c>
+      <c r="Y71" s="15">
+        <v>14.1</v>
+      </c>
+      <c r="Z71" s="15">
+        <v>20.3</v>
+      </c>
+      <c r="AA71" s="15">
+        <v>22.7</v>
+      </c>
+      <c r="AB71" s="15">
+        <v>23.4</v>
+      </c>
+      <c r="AC71" s="15">
+        <v>25</v>
+      </c>
+      <c r="AD71" s="15">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A72" s="28"/>
       <c r="B72" s="11" t="s">
         <v>26</v>
       </c>
@@ -11081,7 +12376,7 @@
       <c r="H72" s="3">
         <v>34.4</v>
       </c>
-      <c r="I72" s="33"/>
+      <c r="I72" s="28"/>
       <c r="J72" s="11" t="s">
         <v>26</v>
       </c>
@@ -11103,9 +12398,45 @@
       <c r="P72" s="3">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A73" s="33"/>
+      <c r="R72">
+        <v>21.9</v>
+      </c>
+      <c r="S72">
+        <v>25</v>
+      </c>
+      <c r="T72">
+        <v>25.8</v>
+      </c>
+      <c r="U72">
+        <v>28.9</v>
+      </c>
+      <c r="V72">
+        <v>30.5</v>
+      </c>
+      <c r="W72">
+        <v>32</v>
+      </c>
+      <c r="Y72" s="15">
+        <v>20.3</v>
+      </c>
+      <c r="Z72" s="15">
+        <v>25.8</v>
+      </c>
+      <c r="AA72" s="15">
+        <v>28.1</v>
+      </c>
+      <c r="AB72" s="15">
+        <v>28.9</v>
+      </c>
+      <c r="AC72" s="15">
+        <v>28.9</v>
+      </c>
+      <c r="AD72" s="15">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A73" s="28"/>
       <c r="B73" s="11" t="s">
         <v>27</v>
       </c>
@@ -11127,7 +12458,7 @@
       <c r="H73" s="3">
         <v>39.1</v>
       </c>
-      <c r="I73" s="33"/>
+      <c r="I73" s="28"/>
       <c r="J73" s="11" t="s">
         <v>27</v>
       </c>
@@ -11149,9 +12480,45 @@
       <c r="P73" s="3">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A74" s="33"/>
+      <c r="R73">
+        <v>27.3</v>
+      </c>
+      <c r="S73">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="T73">
+        <v>33.6</v>
+      </c>
+      <c r="U73">
+        <v>34.4</v>
+      </c>
+      <c r="V73">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="W73">
+        <v>37.5</v>
+      </c>
+      <c r="Y73" s="15">
+        <v>30.5</v>
+      </c>
+      <c r="Z73" s="15">
+        <v>34.4</v>
+      </c>
+      <c r="AA73" s="15">
+        <v>35.9</v>
+      </c>
+      <c r="AB73" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="AC73" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="AD73" s="15">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A74" s="28"/>
       <c r="B74" s="11" t="s">
         <v>28</v>
       </c>
@@ -11173,7 +12540,7 @@
       <c r="H74" s="3">
         <v>44.5</v>
       </c>
-      <c r="I74" s="33"/>
+      <c r="I74" s="28"/>
       <c r="J74" s="11" t="s">
         <v>28</v>
       </c>
@@ -11195,9 +12562,45 @@
       <c r="P74" s="3">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A75" s="33"/>
+      <c r="R74">
+        <v>33.6</v>
+      </c>
+      <c r="S74">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="T74">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="U74">
+        <v>37.5</v>
+      </c>
+      <c r="V74">
+        <v>39.1</v>
+      </c>
+      <c r="W74">
+        <v>41.4</v>
+      </c>
+      <c r="Y74" s="15">
+        <v>34.4</v>
+      </c>
+      <c r="Z74" s="15">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AA74" s="15">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AB74" s="15">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AC74" s="15">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AD74" s="15">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A75" s="28"/>
       <c r="B75" s="11" t="s">
         <v>29</v>
       </c>
@@ -11219,7 +12622,7 @@
       <c r="H75" s="3">
         <v>50</v>
       </c>
-      <c r="I75" s="33"/>
+      <c r="I75" s="28"/>
       <c r="J75" s="11" t="s">
         <v>29</v>
       </c>
@@ -11241,9 +12644,45 @@
       <c r="P75" s="3">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A76" s="33"/>
+      <c r="R75">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="S75">
+        <v>44.5</v>
+      </c>
+      <c r="T75">
+        <v>45.3</v>
+      </c>
+      <c r="U75">
+        <v>46.1</v>
+      </c>
+      <c r="V75">
+        <v>46.9</v>
+      </c>
+      <c r="W75">
+        <v>47.7</v>
+      </c>
+      <c r="Y75" s="15">
+        <v>39.1</v>
+      </c>
+      <c r="Z75" s="15">
+        <v>42.2</v>
+      </c>
+      <c r="AA75" s="15">
+        <v>43</v>
+      </c>
+      <c r="AB75" s="15">
+        <v>44.5</v>
+      </c>
+      <c r="AC75" s="15">
+        <v>45.3</v>
+      </c>
+      <c r="AD75" s="15">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A76" s="28"/>
       <c r="B76" s="11" t="s">
         <v>30</v>
       </c>
@@ -11265,7 +12704,7 @@
       <c r="H76" s="3">
         <v>58.6</v>
       </c>
-      <c r="I76" s="33"/>
+      <c r="I76" s="28"/>
       <c r="J76" s="11" t="s">
         <v>30</v>
       </c>
@@ -11287,59 +12726,95 @@
       <c r="P76" s="3">
         <v>56.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A77" s="19" t="s">
+      <c r="R76">
+        <v>42.2</v>
+      </c>
+      <c r="S76">
+        <v>46.9</v>
+      </c>
+      <c r="T76">
+        <v>46.9</v>
+      </c>
+      <c r="U76">
+        <v>47.7</v>
+      </c>
+      <c r="V76">
+        <v>48.4</v>
+      </c>
+      <c r="W76">
+        <v>50.8</v>
+      </c>
+      <c r="Y76" s="15">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Z76" s="15">
+        <v>45.3</v>
+      </c>
+      <c r="AA76" s="15">
+        <v>46.1</v>
+      </c>
+      <c r="AB76" s="15">
+        <v>46.9</v>
+      </c>
+      <c r="AC76" s="15">
+        <v>48.4</v>
+      </c>
+      <c r="AD76" s="15">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A77" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A78" s="34" t="s">
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A78" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C78" s="26">
         <v>0</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="34" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="36" t="s">
         <v>5</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K78" s="28">
+      <c r="K78" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="29"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A79" s="35"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="27"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A79" s="37"/>
       <c r="B79" s="4" t="s">
         <v>0</v>
       </c>
@@ -11361,7 +12836,7 @@
       <c r="H79" s="3">
         <v>1000</v>
       </c>
-      <c r="I79" s="35"/>
+      <c r="I79" s="37"/>
       <c r="J79" s="4" t="s">
         <v>0</v>
       </c>
@@ -11384,8 +12859,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A80" s="35"/>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A80" s="37"/>
       <c r="B80" s="11" t="s">
         <v>24</v>
       </c>
@@ -11407,7 +12882,7 @@
       <c r="H80" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I80" s="35"/>
+      <c r="I80" s="37"/>
       <c r="J80" s="11" t="s">
         <v>24</v>
       </c>
@@ -11431,7 +12906,7 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A81" s="35"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="11" t="s">
         <v>25</v>
       </c>
@@ -11453,7 +12928,7 @@
       <c r="H81" s="3">
         <v>18.8</v>
       </c>
-      <c r="I81" s="35"/>
+      <c r="I81" s="37"/>
       <c r="J81" s="11" t="s">
         <v>25</v>
       </c>
@@ -11477,7 +12952,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A82" s="35"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="11" t="s">
         <v>26</v>
       </c>
@@ -11499,7 +12974,7 @@
       <c r="H82" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="I82" s="35"/>
+      <c r="I82" s="37"/>
       <c r="J82" s="11" t="s">
         <v>26</v>
       </c>
@@ -11523,7 +12998,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A83" s="35"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="11" t="s">
         <v>27</v>
       </c>
@@ -11545,7 +13020,7 @@
       <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="35"/>
+      <c r="I83" s="37"/>
       <c r="J83" s="11" t="s">
         <v>27</v>
       </c>
@@ -11569,7 +13044,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A84" s="35"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="11" t="s">
         <v>28</v>
       </c>
@@ -11591,7 +13066,7 @@
       <c r="H84" s="3">
         <v>100</v>
       </c>
-      <c r="I84" s="35"/>
+      <c r="I84" s="37"/>
       <c r="J84" s="11" t="s">
         <v>28</v>
       </c>
@@ -11615,7 +13090,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A85" s="35"/>
+      <c r="A85" s="37"/>
       <c r="B85" s="11" t="s">
         <v>29</v>
       </c>
@@ -11637,7 +13112,7 @@
       <c r="H85" s="3">
         <v>100</v>
       </c>
-      <c r="I85" s="35"/>
+      <c r="I85" s="37"/>
       <c r="J85" s="11" t="s">
         <v>29</v>
       </c>
@@ -11661,7 +13136,7 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A86" s="36"/>
+      <c r="A86" s="38"/>
       <c r="B86" s="11" t="s">
         <v>30</v>
       </c>
@@ -11683,7 +13158,7 @@
       <c r="H86" s="3">
         <v>100</v>
       </c>
-      <c r="I86" s="36"/>
+      <c r="I86" s="38"/>
       <c r="J86" s="11" t="s">
         <v>30</v>
       </c>
@@ -11707,33 +13182,33 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="33" t="s">
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="28" t="s">
         <v>6</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A88" s="33"/>
+      <c r="A88" s="28"/>
       <c r="B88" s="4" t="s">
         <v>0</v>
       </c>
@@ -11755,7 +13230,7 @@
       <c r="H88" s="3">
         <v>1000</v>
       </c>
-      <c r="I88" s="33"/>
+      <c r="I88" s="28"/>
       <c r="J88" s="4" t="s">
         <v>0</v>
       </c>
@@ -11779,7 +13254,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A89" s="33"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="11" t="s">
         <v>24</v>
       </c>
@@ -11801,7 +13276,7 @@
       <c r="H89" s="3">
         <v>21.1</v>
       </c>
-      <c r="I89" s="33"/>
+      <c r="I89" s="28"/>
       <c r="J89" s="11" t="s">
         <v>24</v>
       </c>
@@ -11825,7 +13300,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A90" s="33"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="11" t="s">
         <v>25</v>
       </c>
@@ -11847,7 +13322,7 @@
       <c r="H90" s="3">
         <v>42.2</v>
       </c>
-      <c r="I90" s="33"/>
+      <c r="I90" s="28"/>
       <c r="J90" s="11" t="s">
         <v>25</v>
       </c>
@@ -11871,7 +13346,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A91" s="33"/>
+      <c r="A91" s="28"/>
       <c r="B91" s="11" t="s">
         <v>26</v>
       </c>
@@ -11893,7 +13368,7 @@
       <c r="H91" s="3">
         <v>54.6</v>
       </c>
-      <c r="I91" s="33"/>
+      <c r="I91" s="28"/>
       <c r="J91" s="11" t="s">
         <v>26</v>
       </c>
@@ -11917,7 +13392,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A92" s="33"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="11" t="s">
         <v>27</v>
       </c>
@@ -11939,7 +13414,7 @@
       <c r="H92" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="I92" s="33"/>
+      <c r="I92" s="28"/>
       <c r="J92" s="11" t="s">
         <v>27</v>
       </c>
@@ -11963,7 +13438,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A93" s="33"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="11" t="s">
         <v>28</v>
       </c>
@@ -11985,7 +13460,7 @@
       <c r="H93" s="3">
         <v>70.3</v>
       </c>
-      <c r="I93" s="33"/>
+      <c r="I93" s="28"/>
       <c r="J93" s="11" t="s">
         <v>28</v>
       </c>
@@ -12009,7 +13484,7 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A94" s="33"/>
+      <c r="A94" s="28"/>
       <c r="B94" s="11" t="s">
         <v>29</v>
       </c>
@@ -12031,7 +13506,7 @@
       <c r="H94" s="3">
         <v>75</v>
       </c>
-      <c r="I94" s="33"/>
+      <c r="I94" s="28"/>
       <c r="J94" s="11" t="s">
         <v>29</v>
       </c>
@@ -12055,7 +13530,7 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A95" s="33"/>
+      <c r="A95" s="28"/>
       <c r="B95" s="11" t="s">
         <v>30</v>
       </c>
@@ -12077,7 +13552,7 @@
       <c r="H95" s="3">
         <v>80.5</v>
       </c>
-      <c r="I95" s="33"/>
+      <c r="I95" s="28"/>
       <c r="J95" s="11" t="s">
         <v>30</v>
       </c>
@@ -12100,27 +13575,839 @@
         <v>100</v>
       </c>
     </row>
+    <row r="96" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A96" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="34"/>
+      <c r="N96" s="34"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A97" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="26">
+        <v>0</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="27"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A98" s="37"/>
+      <c r="B98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3">
+        <v>100</v>
+      </c>
+      <c r="D98" s="3">
+        <v>200</v>
+      </c>
+      <c r="E98" s="3">
+        <v>300</v>
+      </c>
+      <c r="F98" s="3">
+        <v>400</v>
+      </c>
+      <c r="G98" s="3">
+        <v>500</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I98" s="37"/>
+      <c r="J98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <v>100</v>
+      </c>
+      <c r="L98" s="3">
+        <v>200</v>
+      </c>
+      <c r="M98" s="3">
+        <v>300</v>
+      </c>
+      <c r="N98" s="3">
+        <v>400</v>
+      </c>
+      <c r="O98" s="3">
+        <v>500</v>
+      </c>
+      <c r="P98" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A99" s="37"/>
+      <c r="B99" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D99" s="3">
+        <v>7</v>
+      </c>
+      <c r="E99" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F99" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="G99" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="H99" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="I99" s="37"/>
+      <c r="J99" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="L99" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="M99" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="N99" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="O99" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="P99" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A100" s="37"/>
+      <c r="B100" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D100" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="E100" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="F100" s="3">
+        <v>33.6</v>
+      </c>
+      <c r="G100" s="3">
+        <v>39.1</v>
+      </c>
+      <c r="H100" s="3">
+        <v>50</v>
+      </c>
+      <c r="I100" s="37"/>
+      <c r="J100" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="L100" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="N100" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>42.2</v>
+      </c>
+      <c r="P100" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A101" s="37"/>
+      <c r="B101" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="D101" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="F101" s="3">
+        <v>53.9</v>
+      </c>
+      <c r="G101" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="H101" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="I101" s="37"/>
+      <c r="J101" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K101" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="L101" s="3">
+        <v>41.4</v>
+      </c>
+      <c r="M101" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="N101" s="3">
+        <v>53.1</v>
+      </c>
+      <c r="O101" s="3">
+        <v>57.8</v>
+      </c>
+      <c r="P101" s="3">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A102" s="37"/>
+      <c r="B102" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="D102" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="F102" s="3">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G102" s="3">
+        <v>84.4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="I102" s="37"/>
+      <c r="J102" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K102" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="L102" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="M102" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="N102" s="3">
+        <v>86.7</v>
+      </c>
+      <c r="O102" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A103" s="37"/>
+      <c r="B103" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="D103" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="E103" s="3">
+        <v>85.9</v>
+      </c>
+      <c r="F103" s="3">
+        <v>89.1</v>
+      </c>
+      <c r="G103" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="H103" s="3">
+        <v>100</v>
+      </c>
+      <c r="I103" s="37"/>
+      <c r="J103" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K103" s="3">
+        <v>54.7</v>
+      </c>
+      <c r="L103" s="3">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="M103" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="N103" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="O103" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="P103" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A104" s="37"/>
+      <c r="B104" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="D104" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="E104" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="F104" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="G104" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="H104" s="3">
+        <v>100</v>
+      </c>
+      <c r="I104" s="37"/>
+      <c r="J104" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K104" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="L104" s="3">
+        <v>89.1</v>
+      </c>
+      <c r="M104" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="N104" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="O104" s="3">
+        <v>100</v>
+      </c>
+      <c r="P104" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A105" s="38"/>
+      <c r="B105" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="3">
+        <v>86.7</v>
+      </c>
+      <c r="D105" s="3">
+        <v>91.4</v>
+      </c>
+      <c r="E105" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="F105" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="G105" s="3">
+        <v>100</v>
+      </c>
+      <c r="H105" s="3">
+        <v>100</v>
+      </c>
+      <c r="I105" s="38"/>
+      <c r="J105" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K105" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="L105" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="M105" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="N105" s="3">
+        <v>100</v>
+      </c>
+      <c r="O105" s="3">
+        <v>100</v>
+      </c>
+      <c r="P105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A106" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A107" s="28"/>
+      <c r="B107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="3">
+        <v>100</v>
+      </c>
+      <c r="D107" s="3">
+        <v>200</v>
+      </c>
+      <c r="E107" s="3">
+        <v>300</v>
+      </c>
+      <c r="F107" s="3">
+        <v>400</v>
+      </c>
+      <c r="G107" s="3">
+        <v>500</v>
+      </c>
+      <c r="H107" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I107" s="28"/>
+      <c r="J107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K107" s="3">
+        <v>100</v>
+      </c>
+      <c r="L107" s="3">
+        <v>200</v>
+      </c>
+      <c r="M107" s="3">
+        <v>300</v>
+      </c>
+      <c r="N107" s="3">
+        <v>400</v>
+      </c>
+      <c r="O107" s="3">
+        <v>500</v>
+      </c>
+      <c r="P107" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A108" s="28"/>
+      <c r="B108" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D108" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="E108" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="F108" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="G108" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H108" s="3">
+        <v>85.2</v>
+      </c>
+      <c r="I108" s="28"/>
+      <c r="J108" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K108" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="L108" s="3">
+        <v>43</v>
+      </c>
+      <c r="M108" s="3">
+        <v>52.3</v>
+      </c>
+      <c r="N108" s="3">
+        <v>58.6</v>
+      </c>
+      <c r="O108" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="P108" s="3">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A109" s="28"/>
+      <c r="B109" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="D109" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="E109" s="3">
+        <v>100</v>
+      </c>
+      <c r="F109" s="3">
+        <v>100</v>
+      </c>
+      <c r="G109" s="3">
+        <v>100</v>
+      </c>
+      <c r="H109" s="3">
+        <v>100</v>
+      </c>
+      <c r="I109" s="28"/>
+      <c r="J109" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K109" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="L109" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="M109" s="3">
+        <v>100</v>
+      </c>
+      <c r="N109" s="3">
+        <v>100</v>
+      </c>
+      <c r="O109" s="3">
+        <v>100</v>
+      </c>
+      <c r="P109" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A110" s="28"/>
+      <c r="B110" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="D110" s="3">
+        <v>100</v>
+      </c>
+      <c r="E110" s="3">
+        <v>100</v>
+      </c>
+      <c r="F110" s="3">
+        <v>100</v>
+      </c>
+      <c r="G110" s="3">
+        <v>100</v>
+      </c>
+      <c r="H110" s="3">
+        <v>100</v>
+      </c>
+      <c r="I110" s="28"/>
+      <c r="J110" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K110" s="3">
+        <v>100</v>
+      </c>
+      <c r="L110" s="3">
+        <v>100</v>
+      </c>
+      <c r="M110" s="3">
+        <v>100</v>
+      </c>
+      <c r="N110" s="3">
+        <v>100</v>
+      </c>
+      <c r="O110" s="3">
+        <v>100</v>
+      </c>
+      <c r="P110" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A111" s="28"/>
+      <c r="B111" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="3">
+        <v>100</v>
+      </c>
+      <c r="D111" s="3">
+        <v>100</v>
+      </c>
+      <c r="E111" s="3">
+        <v>100</v>
+      </c>
+      <c r="F111" s="3">
+        <v>100</v>
+      </c>
+      <c r="G111" s="3">
+        <v>100</v>
+      </c>
+      <c r="H111" s="3">
+        <v>100</v>
+      </c>
+      <c r="I111" s="28"/>
+      <c r="J111" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111" s="3">
+        <v>100</v>
+      </c>
+      <c r="L111" s="3">
+        <v>100</v>
+      </c>
+      <c r="M111" s="3">
+        <v>100</v>
+      </c>
+      <c r="N111" s="3">
+        <v>100</v>
+      </c>
+      <c r="O111" s="3">
+        <v>100</v>
+      </c>
+      <c r="P111" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A112" s="28"/>
+      <c r="B112" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="3">
+        <v>100</v>
+      </c>
+      <c r="D112" s="3">
+        <v>100</v>
+      </c>
+      <c r="E112" s="3">
+        <v>100</v>
+      </c>
+      <c r="F112" s="3">
+        <v>100</v>
+      </c>
+      <c r="G112" s="3">
+        <v>100</v>
+      </c>
+      <c r="H112" s="3">
+        <v>100</v>
+      </c>
+      <c r="I112" s="28"/>
+      <c r="J112" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K112" s="3">
+        <v>100</v>
+      </c>
+      <c r="L112" s="3">
+        <v>100</v>
+      </c>
+      <c r="M112" s="3">
+        <v>100</v>
+      </c>
+      <c r="N112" s="3">
+        <v>100</v>
+      </c>
+      <c r="O112" s="3">
+        <v>100</v>
+      </c>
+      <c r="P112" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A113" s="28"/>
+      <c r="B113" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="3">
+        <v>100</v>
+      </c>
+      <c r="D113" s="3">
+        <v>100</v>
+      </c>
+      <c r="E113" s="3">
+        <v>100</v>
+      </c>
+      <c r="F113" s="3">
+        <v>100</v>
+      </c>
+      <c r="G113" s="3">
+        <v>100</v>
+      </c>
+      <c r="H113" s="3">
+        <v>100</v>
+      </c>
+      <c r="I113" s="28"/>
+      <c r="J113" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113" s="3">
+        <v>100</v>
+      </c>
+      <c r="L113" s="3">
+        <v>100</v>
+      </c>
+      <c r="M113" s="3">
+        <v>100</v>
+      </c>
+      <c r="N113" s="3">
+        <v>100</v>
+      </c>
+      <c r="O113" s="3">
+        <v>100</v>
+      </c>
+      <c r="P113" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A114" s="28"/>
+      <c r="B114" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="3">
+        <v>100</v>
+      </c>
+      <c r="D114" s="3">
+        <v>100</v>
+      </c>
+      <c r="E114" s="3">
+        <v>100</v>
+      </c>
+      <c r="F114" s="3">
+        <v>100</v>
+      </c>
+      <c r="G114" s="3">
+        <v>100</v>
+      </c>
+      <c r="H114" s="3">
+        <v>100</v>
+      </c>
+      <c r="I114" s="28"/>
+      <c r="J114" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K114" s="3">
+        <v>100</v>
+      </c>
+      <c r="L114" s="3">
+        <v>100</v>
+      </c>
+      <c r="M114" s="3">
+        <v>100</v>
+      </c>
+      <c r="N114" s="3">
+        <v>100</v>
+      </c>
+      <c r="O114" s="3">
+        <v>100</v>
+      </c>
+      <c r="P114" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="I2:I10"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="I11:I19"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:I38"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="A39:P39"/>
+  <mergeCells count="54">
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="I106:I114"/>
+    <mergeCell ref="K106:P106"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A97:A105"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="I97:I105"/>
+    <mergeCell ref="K97:P97"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="I87:I95"/>
+    <mergeCell ref="K87:P87"/>
+    <mergeCell ref="K59:P59"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A78:A86"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="I78:I86"/>
+    <mergeCell ref="K78:P78"/>
     <mergeCell ref="A40:A48"/>
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="I40:I48"/>
@@ -12137,19 +14424,1346 @@
     <mergeCell ref="A59:A67"/>
     <mergeCell ref="C59:H59"/>
     <mergeCell ref="I59:I67"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="I87:I95"/>
-    <mergeCell ref="K87:P87"/>
-    <mergeCell ref="K59:P59"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A78:A86"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="I78:I86"/>
-    <mergeCell ref="K78:P78"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:I38"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="I11:I19"/>
+    <mergeCell ref="K11:P11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3505D5EF-9368-43AB-B3EC-D9330F673BC8}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.06640625" customWidth="1"/>
+    <col min="8" max="8" width="11.53125" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" customWidth="1"/>
+    <col min="10" max="10" width="12.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="37"/>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200</v>
+      </c>
+      <c r="E3" s="2">
+        <v>300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>400</v>
+      </c>
+      <c r="G3" s="2">
+        <v>500</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>100</v>
+      </c>
+      <c r="L3" s="3">
+        <v>200</v>
+      </c>
+      <c r="M3" s="3">
+        <v>300</v>
+      </c>
+      <c r="N3" s="3">
+        <v>400</v>
+      </c>
+      <c r="O3" s="3">
+        <v>500</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="37"/>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="37"/>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="37"/>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="37"/>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="P8" s="3">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="37"/>
+      <c r="B9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="L9" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="M9" s="3">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3">
+        <v>7</v>
+      </c>
+      <c r="O9" s="3">
+        <v>7</v>
+      </c>
+      <c r="P9" s="3">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="38"/>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="N10" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="O10" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="28"/>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2">
+        <v>200</v>
+      </c>
+      <c r="E12" s="2">
+        <v>300</v>
+      </c>
+      <c r="F12" s="2">
+        <v>400</v>
+      </c>
+      <c r="G12" s="2">
+        <v>500</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>300</v>
+      </c>
+      <c r="N12" s="3">
+        <v>400</v>
+      </c>
+      <c r="O12" s="3">
+        <v>500</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="28"/>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="N13" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="O13" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="P13" s="3">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="28"/>
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="L14" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="N14" s="3">
+        <v>18</v>
+      </c>
+      <c r="O14" s="3">
+        <v>18</v>
+      </c>
+      <c r="P14" s="3">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="28"/>
+      <c r="B15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="O15" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="P15" s="3">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="28"/>
+      <c r="B16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="L16" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="N16" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="O16" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="P16" s="3">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="28"/>
+      <c r="B17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="L17" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="M17" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="N17" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="O17" s="3">
+        <v>44.5</v>
+      </c>
+      <c r="P17" s="3">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="28"/>
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="M18" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="N18" s="3">
+        <v>50.8</v>
+      </c>
+      <c r="O18" s="3">
+        <v>50.8</v>
+      </c>
+      <c r="P18" s="3">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" s="28"/>
+      <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="3">
+        <v>33.6</v>
+      </c>
+      <c r="L19" s="3">
+        <v>33.6</v>
+      </c>
+      <c r="M19" s="3">
+        <v>46.1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" s="28"/>
+      <c r="B22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <v>200</v>
+      </c>
+      <c r="F22" s="2">
+        <v>300</v>
+      </c>
+      <c r="G22" s="2">
+        <v>400</v>
+      </c>
+      <c r="H22" s="2">
+        <v>500</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
+        <v>500</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" s="28"/>
+      <c r="B23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E23" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>43.8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>46.9</v>
+      </c>
+      <c r="J23" s="3">
+        <v>75.38</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" s="28"/>
+      <c r="B24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="F24" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="G24" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>45.3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>46.9</v>
+      </c>
+      <c r="J24" s="3">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P24" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" s="28"/>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>32</v>
+      </c>
+      <c r="F25" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="J25" s="3">
+        <v>75.41</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="O25" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" s="28"/>
+      <c r="B26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="G26" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I26" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="J26" s="3">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="N26" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="O26" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="P26" s="3">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="28"/>
+      <c r="B27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="G27" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="H27" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="J27" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P27" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="27"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" s="28"/>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2">
+        <v>200</v>
+      </c>
+      <c r="F29" s="2">
+        <v>300</v>
+      </c>
+      <c r="G29" s="2">
+        <v>400</v>
+      </c>
+      <c r="H29" s="2">
+        <v>500</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="3">
+        <v>100</v>
+      </c>
+      <c r="L29" s="3">
+        <v>200</v>
+      </c>
+      <c r="M29" s="3">
+        <v>300</v>
+      </c>
+      <c r="N29" s="3">
+        <v>400</v>
+      </c>
+      <c r="O29" s="3">
+        <v>500</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" s="28"/>
+      <c r="B30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>70.3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="F30" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="G30" s="2">
+        <v>85.9</v>
+      </c>
+      <c r="H30" s="2">
+        <v>86.7</v>
+      </c>
+      <c r="I30" s="2">
+        <v>100</v>
+      </c>
+      <c r="J30" s="3">
+        <v>75.38</v>
+      </c>
+      <c r="K30" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L30" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M30" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="N30" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="O30" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="P30" s="3">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" s="28"/>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>68.8</v>
+      </c>
+      <c r="E31" s="2">
+        <v>75.8</v>
+      </c>
+      <c r="F31" s="2">
+        <v>75.8</v>
+      </c>
+      <c r="G31" s="2">
+        <v>82</v>
+      </c>
+      <c r="H31" s="2">
+        <v>83.6</v>
+      </c>
+      <c r="I31" s="2">
+        <v>100</v>
+      </c>
+      <c r="J31" s="3">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="K31" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="L31" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="M31" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="O31" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="P31" s="3">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A32" s="28"/>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>68</v>
+      </c>
+      <c r="E32" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>75.41</v>
+      </c>
+      <c r="K32" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="M32" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="O32" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="P32" s="3">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33" s="28"/>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>79.7</v>
+      </c>
+      <c r="E33" s="2">
+        <v>88.3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>92.2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>94.5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>100</v>
+      </c>
+      <c r="I33" s="2">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="K33" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="L33" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="M33" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="N33" s="3">
+        <v>29.7</v>
+      </c>
+      <c r="O33" s="3">
+        <v>32</v>
+      </c>
+      <c r="P33" s="3">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A34" s="28"/>
+      <c r="B34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <v>93</v>
+      </c>
+      <c r="E34" s="2">
+        <v>94.5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>100</v>
+      </c>
+      <c r="G34" s="2">
+        <v>100</v>
+      </c>
+      <c r="H34" s="2">
+        <v>100</v>
+      </c>
+      <c r="I34" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="K34" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="L34" s="3">
+        <v>32</v>
+      </c>
+      <c r="M34" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="N34" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="O34" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="P34" s="3">
+        <v>46.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:I19"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="K2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>